--- a/BackTest/2020-01-26 BackTest CON.xlsx
+++ b/BackTest/2020-01-26 BackTest CON.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>110004.0519</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>8879.821900000024</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>36914.26190000003</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.113</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>204119.6719</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.114</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +603,19 @@
         <v>134033.5719</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.127</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -619,8 +647,14 @@
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +683,19 @@
         <v>103996.6719</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.122</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +724,19 @@
         <v>57940.09190000001</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.119</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +765,19 @@
         <v>168075.3919</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.112</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +806,19 @@
         <v>143044.6419</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.117</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +847,19 @@
         <v>45925.33190000002</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +888,19 @@
         <v>113007.7419</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3.113</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +929,19 @@
         <v>46926.56190000003</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3.118</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +970,19 @@
         <v>83972.07190000004</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3.114</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,15 +1011,19 @@
         <v>191103.6819</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>3.116</v>
       </c>
       <c r="J16" t="n">
-        <v>3.116</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
+        <v>3.125</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -950,15 +1052,17 @@
         <v>118013.8919</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3.124</v>
+      </c>
       <c r="J17" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L17" t="n">
@@ -989,11 +1093,13 @@
         <v>152055.7119</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3.115</v>
+      </c>
       <c r="J18" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1028,11 +1134,13 @@
         <v>135034.8019</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3.121</v>
+      </c>
       <c r="J19" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1067,11 +1175,13 @@
         <v>63947.47190000002</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3.114</v>
+      </c>
       <c r="J20" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1106,11 +1216,13 @@
         <v>164070.4719</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3.113</v>
+      </c>
       <c r="J21" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1145,11 +1257,13 @@
         <v>164070.4719</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3.12</v>
+      </c>
       <c r="J22" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -1184,11 +1298,13 @@
         <v>152055.7119</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>3.12</v>
+      </c>
       <c r="J23" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1223,11 +1339,13 @@
         <v>70595.63889999999</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3.112</v>
+      </c>
       <c r="J24" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -1262,11 +1380,13 @@
         <v>158703.8789</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3.111</v>
+      </c>
       <c r="J25" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1301,13 +1421,13 @@
         <v>189742.0089</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>3.123</v>
       </c>
       <c r="J26" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -1342,11 +1462,13 @@
         <v>173722.3289</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3.124</v>
+      </c>
       <c r="J27" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -1381,13 +1503,13 @@
         <v>91621.46890000002</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>3.117</v>
       </c>
       <c r="J28" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -1422,11 +1544,13 @@
         <v>127665.7489</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3.115</v>
+      </c>
       <c r="J29" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -1461,13 +1585,13 @@
         <v>231793.6689</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>3.118</v>
       </c>
       <c r="J30" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -1502,11 +1626,13 @@
         <v>162708.7989</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3.121</v>
+      </c>
       <c r="J31" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -1541,13 +1667,13 @@
         <v>86615.31890000003</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>3.117</v>
       </c>
       <c r="J32" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -1582,13 +1708,13 @@
         <v>34551.35890000003</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>3.116</v>
       </c>
       <c r="J33" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -1623,13 +1749,13 @@
         <v>21535.36890000003</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>3.114</v>
       </c>
       <c r="J34" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -1664,13 +1790,13 @@
         <v>-11937.75209999997</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>3.113</v>
       </c>
       <c r="J35" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -1705,13 +1831,13 @@
         <v>35120.05790000003</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>3.111</v>
       </c>
       <c r="J36" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -1746,13 +1872,13 @@
         <v>49137.27790000003</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>3.112</v>
       </c>
       <c r="J37" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -1787,13 +1913,13 @@
         <v>31115.13790000003</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>3.118</v>
       </c>
       <c r="J38" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -1828,13 +1954,13 @@
         <v>133240.5979000001</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>3.113</v>
       </c>
       <c r="J39" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -1869,13 +1995,13 @@
         <v>25107.75790000006</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>3.116</v>
       </c>
       <c r="J40" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -1910,13 +2036,13 @@
         <v>105206.1579</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>3.114</v>
       </c>
       <c r="J41" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -1951,13 +2077,13 @@
         <v>198320.5479000001</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>3.118</v>
       </c>
       <c r="J42" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -1992,13 +2118,13 @@
         <v>124229.5279000001</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>3.119</v>
       </c>
       <c r="J43" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -2033,13 +2159,13 @@
         <v>218857.7779</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>3.114</v>
       </c>
       <c r="J44" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2074,13 +2200,13 @@
         <v>157782.7479</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>3.118</v>
       </c>
       <c r="J45" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2115,13 +2241,13 @@
         <v>221861.4679</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>3.117</v>
       </c>
       <c r="J46" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2156,13 +2282,13 @@
         <v>163790.1279000001</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>3.119</v>
       </c>
       <c r="J47" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2197,13 +2323,13 @@
         <v>242887.2979000001</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>3.113</v>
       </c>
       <c r="J48" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2238,13 +2364,13 @@
         <v>307967.2479000001</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>3.116</v>
       </c>
       <c r="J49" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2279,13 +2405,13 @@
         <v>264914.3579000001</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>3.118</v>
       </c>
       <c r="J50" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2320,13 +2446,13 @@
         <v>326990.6179000001</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>3.112</v>
       </c>
       <c r="J51" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2361,13 +2487,13 @@
         <v>285940.1879000001</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>3.116</v>
       </c>
       <c r="J52" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2402,13 +2528,13 @@
         <v>323986.9279000001</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>3.112</v>
       </c>
       <c r="J53" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2443,13 +2569,13 @@
         <v>224865.1579</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>3.117</v>
       </c>
       <c r="J54" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2484,13 +2610,13 @@
         <v>268919.2779</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>3.113</v>
       </c>
       <c r="J55" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2525,13 +2651,13 @@
         <v>317979.5479000001</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>3.114</v>
       </c>
       <c r="J56" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2566,13 +2692,13 @@
         <v>363034.8979</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>3.115</v>
       </c>
       <c r="J57" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2607,13 +2733,13 @@
         <v>287942.6479</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>3.117</v>
       </c>
       <c r="J58" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2648,13 +2774,13 @@
         <v>263913.1279</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>3.115</v>
       </c>
       <c r="J59" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2689,13 +2815,13 @@
         <v>353022.5979000001</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>3.114</v>
       </c>
       <c r="J60" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2730,13 +2856,13 @@
         <v>267918.0479000001</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>3.116</v>
       </c>
       <c r="J61" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2771,13 +2897,13 @@
         <v>213851.6279000001</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>3.114</v>
       </c>
       <c r="J62" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2812,13 +2938,13 @@
         <v>297954.9479000001</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>3.112</v>
       </c>
       <c r="J63" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2853,13 +2979,13 @@
         <v>370043.5079000001</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>3.114</v>
       </c>
       <c r="J64" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2894,13 +3020,13 @@
         <v>370605.2149000001</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>3.116</v>
       </c>
       <c r="J65" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2935,13 +3061,13 @@
         <v>315537.5649000001</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>3.12</v>
       </c>
       <c r="J66" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2976,13 +3102,13 @@
         <v>342570.7749000001</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>3.112</v>
       </c>
       <c r="J67" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -3017,13 +3143,13 @@
         <v>433682.7049000001</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>3.115</v>
       </c>
       <c r="J68" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -3058,13 +3184,13 @@
         <v>341569.5449000001</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>3.119</v>
       </c>
       <c r="J69" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3099,13 +3225,13 @@
         <v>341569.5449000001</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>3.113</v>
       </c>
       <c r="J70" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3140,13 +3266,13 @@
         <v>444696.2349000001</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>3.113</v>
       </c>
       <c r="J71" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3181,13 +3307,13 @@
         <v>384622.4349000001</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>3.119</v>
       </c>
       <c r="J72" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3222,13 +3348,13 @@
         <v>453707.3049000001</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>3.117</v>
       </c>
       <c r="J73" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3263,13 +3389,13 @@
         <v>438688.8549000001</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>3.118</v>
       </c>
       <c r="J74" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3304,13 +3430,13 @@
         <v>332558.4749000001</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>3.115</v>
       </c>
       <c r="J75" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3345,13 +3471,13 @@
         <v>428676.5549000001</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>3.112</v>
       </c>
       <c r="J76" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3386,13 +3512,13 @@
         <v>408651.9549000001</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>3.119</v>
       </c>
       <c r="J77" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3427,13 +3553,13 @@
         <v>408651.9549000001</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>3.112</v>
       </c>
       <c r="J78" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3468,13 +3594,13 @@
         <v>447699.9249000001</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>3.112</v>
       </c>
       <c r="J79" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3509,13 +3635,13 @@
         <v>510777.4149000001</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>3.115</v>
       </c>
       <c r="J80" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3550,13 +3676,13 @@
         <v>415660.5649000001</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>3.116</v>
       </c>
       <c r="J81" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3591,13 +3717,13 @@
         <v>404647.0349000001</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>3.114</v>
       </c>
       <c r="J82" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3632,13 +3758,13 @@
         <v>461717.1449000001</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>3.113</v>
       </c>
       <c r="J83" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3673,13 +3799,13 @@
         <v>411655.6449000001</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>3.117</v>
       </c>
       <c r="J84" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3714,13 +3840,13 @@
         <v>509776.1849000001</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>3.112</v>
       </c>
       <c r="J85" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3755,13 +3881,13 @@
         <v>510410.0939</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>3.115</v>
       </c>
       <c r="J86" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3796,13 +3922,13 @@
         <v>401276.0239</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>3.12</v>
       </c>
       <c r="J87" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3837,13 +3963,13 @@
         <v>361226.8239</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>3.117</v>
       </c>
       <c r="J88" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3878,13 +4004,13 @@
         <v>439322.7639</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>3.116</v>
       </c>
       <c r="J89" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3919,13 +4045,13 @@
         <v>439579.1997</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>3.119</v>
       </c>
       <c r="J90" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3960,13 +4086,13 @@
         <v>413547.2197</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>3.12</v>
       </c>
       <c r="J91" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -4001,13 +4127,13 @@
         <v>340457.4297</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>3.118</v>
       </c>
       <c r="J92" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -4042,13 +4168,13 @@
         <v>363485.7197</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>3.112</v>
       </c>
       <c r="J93" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -4083,13 +4209,13 @@
         <v>422558.2897</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>3.117</v>
       </c>
       <c r="J94" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -4124,13 +4250,13 @@
         <v>317429.1397000001</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>3.118</v>
       </c>
       <c r="J95" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -4165,13 +4291,13 @@
         <v>373498.0197000001</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>3.113</v>
       </c>
       <c r="J96" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -4206,13 +4332,13 @@
         <v>320432.8297000001</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>3.115</v>
       </c>
       <c r="J97" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -4247,13 +4373,13 @@
         <v>271604.8447000001</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>3.114</v>
       </c>
       <c r="J98" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4288,13 +4414,13 @@
         <v>306647.8947000001</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>3.112</v>
       </c>
       <c r="J99" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4329,13 +4455,13 @@
         <v>306647.8947000001</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>3.119</v>
       </c>
       <c r="J100" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4370,13 +4496,13 @@
         <v>278613.4547000001</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>3.119</v>
       </c>
       <c r="J101" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4411,13 +4537,13 @@
         <v>445818.8647</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>3.117</v>
       </c>
       <c r="J102" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4452,13 +4578,13 @@
         <v>375732.7647000001</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>3.118</v>
       </c>
       <c r="J103" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4493,13 +4619,13 @@
         <v>458834.8547</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>3.114</v>
       </c>
       <c r="J104" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4534,13 +4660,13 @@
         <v>428797.9547</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>3.116</v>
       </c>
       <c r="J105" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4575,13 +4701,13 @@
         <v>538933.2547</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>3.115</v>
       </c>
       <c r="J106" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4616,13 +4742,13 @@
         <v>563964.0047</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>3.116</v>
       </c>
       <c r="J107" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4657,13 +4783,13 @@
         <v>563331.2277</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>3.118</v>
       </c>
       <c r="J108" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4698,13 +4824,13 @@
         <v>660450.5377</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>3.111</v>
       </c>
       <c r="J109" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4739,13 +4865,13 @@
         <v>727532.9477</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>3.115</v>
       </c>
       <c r="J110" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4780,13 +4906,13 @@
         <v>809614.1277000001</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>3.117</v>
       </c>
       <c r="J111" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4821,13 +4947,13 @@
         <v>846659.6377000001</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>3.118</v>
       </c>
       <c r="J112" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4862,13 +4988,13 @@
         <v>739528.0277000001</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>3.119</v>
       </c>
       <c r="J113" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4903,13 +5029,13 @@
         <v>790590.7577000001</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>3.114</v>
       </c>
       <c r="J114" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4944,13 +5070,13 @@
         <v>790590.7577000001</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>3.116</v>
       </c>
       <c r="J115" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4985,13 +5111,13 @@
         <v>824632.5777</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>3.116</v>
       </c>
       <c r="J116" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -5026,13 +5152,13 @@
         <v>807611.6677</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>3.119</v>
       </c>
       <c r="J117" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -5067,13 +5193,13 @@
         <v>636401.3377</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>3.118</v>
       </c>
       <c r="J118" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -5108,13 +5234,13 @@
         <v>636401.3377</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>3.113</v>
       </c>
       <c r="J119" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -5149,13 +5275,13 @@
         <v>717500.9677</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>3.113</v>
       </c>
       <c r="J120" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -5190,13 +5316,13 @@
         <v>629392.7277</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>3.118</v>
       </c>
       <c r="J121" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -5231,13 +5357,13 @@
         <v>676450.5377</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>3.114</v>
       </c>
       <c r="J122" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -5272,13 +5398,13 @@
         <v>594349.6777</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>3.116</v>
       </c>
       <c r="J123" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -5313,13 +5439,13 @@
         <v>631098.8236999999</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>3.113</v>
       </c>
       <c r="J124" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -5354,13 +5480,13 @@
         <v>526970.9036999999</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>3.12</v>
       </c>
       <c r="J125" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -5395,13 +5521,13 @@
         <v>596055.7736999999</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>3.114</v>
       </c>
       <c r="J126" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5436,13 +5562,13 @@
         <v>519962.2936999999</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>3.118</v>
       </c>
       <c r="J127" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5477,13 +5603,13 @@
         <v>467898.3336999999</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>3.117</v>
       </c>
       <c r="J128" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5518,13 +5644,13 @@
         <v>421841.7536999999</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>3.115</v>
       </c>
       <c r="J129" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5559,13 +5685,13 @@
         <v>421841.7536999999</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>3.112</v>
       </c>
       <c r="J130" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5600,13 +5726,13 @@
         <v>435858.9736999999</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>3.112</v>
       </c>
       <c r="J131" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5641,13 +5767,13 @@
         <v>453881.1136999999</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>3.115</v>
       </c>
       <c r="J132" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5682,13 +5808,13 @@
         <v>556006.5736999998</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>3.116</v>
       </c>
       <c r="J133" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5723,13 +5849,13 @@
         <v>447873.7336999999</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>3.119</v>
       </c>
       <c r="J134" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5764,13 +5890,13 @@
         <v>274660.9436999998</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>3.115</v>
       </c>
       <c r="J135" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5805,13 +5931,13 @@
         <v>442867.5836999998</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>3.112</v>
       </c>
       <c r="J136" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5846,13 +5972,13 @@
         <v>381142.6256999999</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>3.114</v>
       </c>
       <c r="J137" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5887,13 +6013,13 @@
         <v>445221.3456999998</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>3.111</v>
       </c>
       <c r="J138" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5928,13 +6054,13 @@
         <v>387150.0056999999</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>3.118</v>
       </c>
       <c r="J139" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5969,13 +6095,13 @@
         <v>387150.0056999999</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>3.112</v>
       </c>
       <c r="J140" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -6010,13 +6136,13 @@
         <v>387150.0056999999</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>3.112</v>
       </c>
       <c r="J141" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -6051,13 +6177,13 @@
         <v>430202.8956999999</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>3.112</v>
       </c>
       <c r="J142" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -6092,13 +6218,13 @@
         <v>368126.6356999999</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>3.115</v>
       </c>
       <c r="J143" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -6133,13 +6259,13 @@
         <v>368126.6356999999</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>3.112</v>
       </c>
       <c r="J144" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -6174,13 +6300,13 @@
         <v>406990.3796999999</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>3.112</v>
       </c>
       <c r="J145" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -6215,13 +6341,13 @@
         <v>307868.6096999999</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
         <v>3.117</v>
       </c>
       <c r="J146" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -6256,13 +6382,13 @@
         <v>307868.6096999999</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
         <v>3.112</v>
       </c>
       <c r="J147" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -6297,13 +6423,13 @@
         <v>307868.6096999999</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
         <v>3.112</v>
       </c>
       <c r="J148" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -6338,13 +6464,13 @@
         <v>307868.6096999999</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
         <v>3.112</v>
       </c>
       <c r="J149" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -6379,13 +6505,13 @@
         <v>421007.5996999998</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
         <v>3.112</v>
       </c>
       <c r="J150" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -6420,13 +6546,13 @@
         <v>335903.0496999999</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
         <v>3.114</v>
       </c>
       <c r="J151" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -6461,13 +6587,13 @@
         <v>335903.0496999999</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
         <v>3.113</v>
       </c>
       <c r="J152" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -6502,13 +6628,13 @@
         <v>420006.3696999999</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
         <v>3.113</v>
       </c>
       <c r="J153" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -6543,13 +6669,13 @@
         <v>347917.8096999999</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
         <v>3.116</v>
       </c>
       <c r="J154" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -6584,13 +6710,13 @@
         <v>402985.4596999999</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
         <v>3.114</v>
       </c>
       <c r="J155" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6625,13 +6751,13 @@
         <v>430018.6696999999</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
         <v>3.115</v>
       </c>
       <c r="J156" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6666,13 +6792,13 @@
         <v>338906.7396999999</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I157" t="n">
         <v>3.116</v>
       </c>
       <c r="J157" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6707,13 +6833,13 @@
         <v>518126.9097</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I158" t="n">
         <v>3.113</v>
       </c>
       <c r="J158" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6748,13 +6874,13 @@
         <v>432021.1296999999</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I159" t="n">
         <v>3.116</v>
       </c>
       <c r="J159" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6789,13 +6915,13 @@
         <v>328413.8496999999</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I160" t="n">
         <v>3.113</v>
       </c>
       <c r="J160" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6830,13 +6956,13 @@
         <v>457572.5196999999</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I161" t="n">
         <v>3.112</v>
       </c>
       <c r="J161" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6871,13 +6997,13 @@
         <v>457572.5196999999</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I162" t="n">
         <v>3.113</v>
       </c>
       <c r="J162" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6912,13 +7038,13 @@
         <v>563702.8997</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I163" t="n">
         <v>3.113</v>
       </c>
       <c r="J163" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6953,13 +7079,13 @@
         <v>659820.9796999999</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
         <v>3.114</v>
       </c>
       <c r="J164" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6994,13 +7120,13 @@
         <v>591737.3396999999</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
         <v>3.117</v>
       </c>
       <c r="J165" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -7035,13 +7161,13 @@
         <v>591737.3396999999</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I166" t="n">
         <v>3.113</v>
       </c>
       <c r="J166" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -7076,13 +7202,13 @@
         <v>591737.3396999999</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I167" t="n">
         <v>3.113</v>
       </c>
       <c r="J167" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -7117,13 +7243,13 @@
         <v>591737.3396999999</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I168" t="n">
         <v>3.113</v>
       </c>
       <c r="J168" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -7158,13 +7284,13 @@
         <v>550123.7212999999</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I169" t="n">
         <v>3.113</v>
       </c>
       <c r="J169" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -7199,13 +7325,13 @@
         <v>299086.8149999998</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I170" t="n">
         <v>3.112</v>
       </c>
       <c r="J170" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -7240,13 +7366,13 @@
         <v>394203.6649999998</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I171" t="n">
         <v>3.111</v>
       </c>
       <c r="J171" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -7281,13 +7407,13 @@
         <v>383190.1349999998</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I172" t="n">
         <v>3.116</v>
       </c>
       <c r="J172" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -7322,13 +7448,13 @@
         <v>383190.1349999998</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I173" t="n">
         <v>3.111</v>
       </c>
       <c r="J173" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -7363,13 +7489,13 @@
         <v>383190.1349999998</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I174" t="n">
         <v>3.111</v>
       </c>
       <c r="J174" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -7404,13 +7530,13 @@
         <v>383190.1349999998</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I175" t="n">
         <v>3.111</v>
       </c>
       <c r="J175" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -7445,13 +7571,13 @@
         <v>1058208.0392</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I176" t="n">
         <v>3.111</v>
       </c>
       <c r="J176" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -7486,13 +7612,13 @@
         <v>1058208.0392</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I177" t="n">
         <v>3.113</v>
       </c>
       <c r="J177" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -7527,13 +7653,13 @@
         <v>1136303.9792</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I178" t="n">
         <v>3.113</v>
       </c>
       <c r="J178" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -7568,13 +7694,13 @@
         <v>1110271.9992</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I179" t="n">
         <v>3.118</v>
       </c>
       <c r="J179" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -7609,11 +7735,13 @@
         <v>1110271.9992</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>3.114</v>
+      </c>
       <c r="J180" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -7648,13 +7776,13 @@
         <v>1087243.7092</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I181" t="n">
         <v>3.114</v>
       </c>
       <c r="J181" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -7689,13 +7817,13 @@
         <v>1146316.2792</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I182" t="n">
         <v>3.111</v>
       </c>
       <c r="J182" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -7730,13 +7858,13 @@
         <v>1251445.4292</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I183" t="n">
         <v>3.112</v>
       </c>
       <c r="J183" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -7771,11 +7899,13 @@
         <v>1195376.5492</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>3.119</v>
+      </c>
       <c r="J184" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -7810,11 +7940,13 @@
         <v>1142311.3592</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>3.115</v>
+      </c>
       <c r="J185" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -7849,11 +7981,13 @@
         <v>1171347.0292</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>3.114</v>
+      </c>
       <c r="J186" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -7888,11 +8022,13 @@
         <v>1190370.3992</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>3.118</v>
+      </c>
       <c r="J187" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -7927,11 +8063,13 @@
         <v>1155327.3492</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>3.119</v>
+      </c>
       <c r="J188" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -7966,11 +8104,13 @@
         <v>1256451.5792</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>3.114</v>
+      </c>
       <c r="J189" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -8005,11 +8145,13 @@
         <v>1256451.5792</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>3.115</v>
+      </c>
       <c r="J190" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -8044,11 +8186,13 @@
         <v>1333546.2892</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>3.115</v>
+      </c>
       <c r="J191" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -8083,11 +8227,13 @@
         <v>1424274.9912</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>3.119</v>
+      </c>
       <c r="J192" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -8122,11 +8268,13 @@
         <v>1271086.8012</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>3.12</v>
+      </c>
       <c r="J193" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -8161,11 +8309,13 @@
         <v>1271086.8012</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>3.117</v>
+      </c>
       <c r="J194" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -8200,11 +8350,13 @@
         <v>1225030.2212</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>3.117</v>
+      </c>
       <c r="J195" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -8239,11 +8391,13 @@
         <v>1114894.9212</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>3.112</v>
+      </c>
       <c r="J196" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -8278,11 +8432,13 @@
         <v>1139925.6712</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>3.111</v>
+      </c>
       <c r="J197" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -8317,11 +8473,13 @@
         <v>1042806.3612</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>3.119</v>
+      </c>
       <c r="J198" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -8356,11 +8514,13 @@
         <v>1109888.7712</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>3.116</v>
+      </c>
       <c r="J199" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -8395,11 +8555,13 @@
         <v>1006762.0812</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>3.118</v>
+      </c>
       <c r="J200" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -8434,11 +8596,13 @@
         <v>1006055.6292</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>3.111</v>
+      </c>
       <c r="J201" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -8473,11 +8637,13 @@
         <v>1113187.2392</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>3.11</v>
+      </c>
       <c r="J202" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -8512,11 +8678,13 @@
         <v>1164249.9692</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>3.114</v>
+      </c>
       <c r="J203" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -8551,11 +8719,13 @@
         <v>1186277.0292</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>3.115</v>
+      </c>
       <c r="J204" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -8590,11 +8760,13 @@
         <v>1152235.2092</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>3.118</v>
+      </c>
       <c r="J205" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -8629,13 +8801,13 @@
         <v>1169256.1192</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I206" t="n">
         <v>3.117</v>
       </c>
       <c r="J206" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -8670,11 +8842,13 @@
         <v>1098168.7892</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>3.118</v>
+      </c>
       <c r="J207" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -8709,11 +8883,13 @@
         <v>1198291.7892</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>3.113</v>
+      </c>
       <c r="J208" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -8748,11 +8924,13 @@
         <v>1230331.1492</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>3.118</v>
+      </c>
       <c r="J209" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -8787,11 +8965,13 @@
         <v>1137216.7592</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>3.119</v>
+      </c>
       <c r="J210" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -8826,11 +9006,13 @@
         <v>1049108.5192</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>3.114</v>
+      </c>
       <c r="J211" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -8865,11 +9047,13 @@
         <v>1080146.6492</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>3.111</v>
+      </c>
       <c r="J212" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -8904,11 +9088,13 @@
         <v>1096166.3292</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>3.117</v>
+      </c>
       <c r="J213" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -8943,11 +9129,13 @@
         <v>1013865.4692</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>3.119</v>
+      </c>
       <c r="J214" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -8982,11 +9170,13 @@
         <v>977621.1891999996</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>3.118</v>
+      </c>
       <c r="J215" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -9021,11 +9211,13 @@
         <v>977821.1891999996</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>3.117</v>
+      </c>
       <c r="J216" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -9060,11 +9252,13 @@
         <v>977821.1891999996</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>3.12</v>
+      </c>
       <c r="J217" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -9099,11 +9293,13 @@
         <v>977821.1891999996</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>3.12</v>
+      </c>
       <c r="J218" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -9138,11 +9334,13 @@
         <v>977821.1891999996</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>3.12</v>
+      </c>
       <c r="J219" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -9177,11 +9375,13 @@
         <v>977821.1891999996</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>3.12</v>
+      </c>
       <c r="J220" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -9216,11 +9416,13 @@
         <v>873493.2691999995</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>3.12</v>
+      </c>
       <c r="J221" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -9255,11 +9457,13 @@
         <v>873493.2691999995</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>3.119</v>
+      </c>
       <c r="J222" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -9294,11 +9498,13 @@
         <v>873493.2691999995</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>3.119</v>
+      </c>
       <c r="J223" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -9333,11 +9539,13 @@
         <v>873493.2691999995</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>3.119</v>
+      </c>
       <c r="J224" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -9372,11 +9580,13 @@
         <v>873493.2691999995</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>3.119</v>
+      </c>
       <c r="J225" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -9411,11 +9621,13 @@
         <v>873493.2691999995</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>3.119</v>
+      </c>
       <c r="J226" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -9450,11 +9662,13 @@
         <v>873493.2691999995</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>3.119</v>
+      </c>
       <c r="J227" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -9489,11 +9703,13 @@
         <v>873493.2691999995</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>3.119</v>
+      </c>
       <c r="J228" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -9528,11 +9744,13 @@
         <v>873493.2691999995</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>3.119</v>
+      </c>
       <c r="J229" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -9567,11 +9785,13 @@
         <v>873493.2691999995</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>3.119</v>
+      </c>
       <c r="J230" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -9606,11 +9826,13 @@
         <v>873493.2691999995</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>3.119</v>
+      </c>
       <c r="J231" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -9645,11 +9867,13 @@
         <v>873493.2691999995</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>3.119</v>
+      </c>
       <c r="J232" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -9684,11 +9908,13 @@
         <v>873493.2691999995</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>3.119</v>
+      </c>
       <c r="J233" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -9723,11 +9949,13 @@
         <v>873493.2691999995</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>3.119</v>
+      </c>
       <c r="J234" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -9762,11 +9990,13 @@
         <v>873493.2691999995</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>3.119</v>
+      </c>
       <c r="J235" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -9801,11 +10031,13 @@
         <v>873493.2691999995</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>3.119</v>
+      </c>
       <c r="J236" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -9840,11 +10072,13 @@
         <v>873493.2691999995</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>3.119</v>
+      </c>
       <c r="J237" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -9879,11 +10113,13 @@
         <v>873493.2691999995</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>3.119</v>
+      </c>
       <c r="J238" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -9918,11 +10154,13 @@
         <v>873493.2691999995</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>3.119</v>
+      </c>
       <c r="J239" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -9957,11 +10195,13 @@
         <v>874061.9681999995</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>3.119</v>
+      </c>
       <c r="J240" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -9996,11 +10236,13 @@
         <v>794964.7981999995</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>3.12</v>
+      </c>
       <c r="J241" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -10035,11 +10277,13 @@
         <v>794964.7981999995</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>3.119</v>
+      </c>
       <c r="J242" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -10074,11 +10318,13 @@
         <v>794964.7981999995</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>3.119</v>
+      </c>
       <c r="J243" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -10113,11 +10359,13 @@
         <v>794964.7981999995</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>3.119</v>
+      </c>
       <c r="J244" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -10152,11 +10400,13 @@
         <v>794964.7981999995</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>3.119</v>
+      </c>
       <c r="J245" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -10191,11 +10441,13 @@
         <v>794964.7981999995</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>3.119</v>
+      </c>
       <c r="J246" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -10230,11 +10482,13 @@
         <v>794964.7981999995</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>3.119</v>
+      </c>
       <c r="J247" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -10269,11 +10523,13 @@
         <v>794964.7981999995</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>3.119</v>
+      </c>
       <c r="J248" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -10308,11 +10564,13 @@
         <v>794964.7981999995</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>3.119</v>
+      </c>
       <c r="J249" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -10347,11 +10605,13 @@
         <v>794964.7981999995</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>3.119</v>
+      </c>
       <c r="J250" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -10386,11 +10646,13 @@
         <v>794964.7981999995</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>3.119</v>
+      </c>
       <c r="J251" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -10425,11 +10687,13 @@
         <v>794964.7981999995</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>3.119</v>
+      </c>
       <c r="J252" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -10464,11 +10728,13 @@
         <v>794964.7981999995</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>3.119</v>
+      </c>
       <c r="J253" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -10503,11 +10769,13 @@
         <v>794964.7981999995</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>3.119</v>
+      </c>
       <c r="J254" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -10542,11 +10810,13 @@
         <v>794964.7981999995</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>3.119</v>
+      </c>
       <c r="J255" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -10581,11 +10851,13 @@
         <v>868006.5291999995</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>3.119</v>
+      </c>
       <c r="J256" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -10620,11 +10892,13 @@
         <v>812938.8791999995</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>3.12</v>
+      </c>
       <c r="J257" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -10659,11 +10933,13 @@
         <v>812938.8791999995</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>3.119</v>
+      </c>
       <c r="J258" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -10698,11 +10974,13 @@
         <v>812938.8791999995</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>3.119</v>
+      </c>
       <c r="J259" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -10737,11 +11015,13 @@
         <v>812938.8791999995</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>3.119</v>
+      </c>
       <c r="J260" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -10776,11 +11056,13 @@
         <v>812938.8791999995</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>3.119</v>
+      </c>
       <c r="J261" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -10815,11 +11097,13 @@
         <v>812938.8791999995</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>3.119</v>
+      </c>
       <c r="J262" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -10854,11 +11138,13 @@
         <v>812938.8791999995</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>3.119</v>
+      </c>
       <c r="J263" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -10893,11 +11179,13 @@
         <v>812738.8791999995</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>3.119</v>
+      </c>
       <c r="J264" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -10932,11 +11220,13 @@
         <v>752465.0791999995</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>3.118</v>
+      </c>
       <c r="J265" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -10971,11 +11261,13 @@
         <v>752465.0791999995</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>3.117</v>
+      </c>
       <c r="J266" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -11010,11 +11302,13 @@
         <v>752465.0791999995</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>3.117</v>
+      </c>
       <c r="J267" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -11049,11 +11343,13 @@
         <v>752465.0791999995</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>3.117</v>
+      </c>
       <c r="J268" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -11088,11 +11384,13 @@
         <v>752465.0791999995</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>3.117</v>
+      </c>
       <c r="J269" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -11127,11 +11425,13 @@
         <v>752465.0791999995</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>3.117</v>
+      </c>
       <c r="J270" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
@@ -11166,11 +11466,13 @@
         <v>752465.0791999995</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>3.117</v>
+      </c>
       <c r="J271" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -11205,11 +11507,13 @@
         <v>752465.0791999995</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>3.117</v>
+      </c>
       <c r="J272" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -11244,11 +11548,13 @@
         <v>752465.0791999995</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>3.117</v>
+      </c>
       <c r="J273" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -11283,11 +11589,13 @@
         <v>752465.0791999995</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>3.117</v>
+      </c>
       <c r="J274" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -11322,11 +11630,13 @@
         <v>752465.0791999995</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>3.117</v>
+      </c>
       <c r="J275" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -11361,11 +11671,13 @@
         <v>752465.0791999995</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>3.117</v>
+      </c>
       <c r="J276" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -11400,11 +11712,13 @@
         <v>752465.0791999995</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>3.117</v>
+      </c>
       <c r="J277" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -11439,11 +11753,13 @@
         <v>752465.0791999995</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>3.117</v>
+      </c>
       <c r="J278" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -11478,11 +11794,13 @@
         <v>752465.0791999995</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>3.117</v>
+      </c>
       <c r="J279" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -11517,11 +11835,13 @@
         <v>752465.0791999995</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>3.117</v>
+      </c>
       <c r="J280" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -11556,11 +11876,13 @@
         <v>752465.0791999995</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>3.117</v>
+      </c>
       <c r="J281" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -11595,11 +11917,13 @@
         <v>752465.0791999995</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>3.117</v>
+      </c>
       <c r="J282" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -11634,11 +11958,13 @@
         <v>752635.0791999995</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>3.117</v>
+      </c>
       <c r="J283" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -11673,11 +11999,13 @@
         <v>678792.3641999995</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>3.118</v>
+      </c>
       <c r="J284" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -11712,11 +12040,13 @@
         <v>678792.3641999995</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>3.117</v>
+      </c>
       <c r="J285" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -11751,11 +12081,13 @@
         <v>678983.3641999995</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>3.117</v>
+      </c>
       <c r="J286" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -11790,11 +12122,13 @@
         <v>678498.4747999995</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>3.118</v>
+      </c>
       <c r="J287" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -11829,11 +12163,13 @@
         <v>677713.5107999995</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>3.117</v>
+      </c>
       <c r="J288" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -11868,11 +12204,13 @@
         <v>677913.5107999995</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>3.116</v>
+      </c>
       <c r="J289" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -11907,11 +12245,13 @@
         <v>677913.5107999995</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>3.117</v>
+      </c>
       <c r="J290" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -11946,11 +12286,13 @@
         <v>677913.5107999995</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>3.117</v>
+      </c>
       <c r="J291" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -11985,11 +12327,13 @@
         <v>677213.4939999995</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>3.117</v>
+      </c>
       <c r="J292" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -12024,11 +12368,13 @@
         <v>677213.4939999995</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>3.116</v>
+      </c>
       <c r="J293" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -12063,11 +12409,13 @@
         <v>677213.4939999995</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>3.116</v>
+      </c>
       <c r="J294" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -12102,11 +12450,13 @@
         <v>677213.4939999995</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>3.116</v>
+      </c>
       <c r="J295" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -12141,11 +12491,13 @@
         <v>623563.5859999994</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>3.116</v>
+      </c>
       <c r="J296" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -12180,11 +12532,13 @@
         <v>1218019.897799999</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>3.115</v>
+      </c>
       <c r="J297" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -12219,11 +12573,13 @@
         <v>1348135.307799999</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>3.128</v>
+      </c>
       <c r="J298" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -12258,11 +12614,13 @@
         <v>1244481.609399999</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>3.13</v>
+      </c>
       <c r="J299" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -12297,11 +12655,13 @@
         <v>1345605.839399999</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>3.123</v>
+      </c>
       <c r="J300" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -12336,11 +12696,13 @@
         <v>1373640.279399999</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>3.124</v>
+      </c>
       <c r="J301" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -12375,11 +12737,13 @@
         <v>1296545.569399999</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>3.126</v>
+      </c>
       <c r="J302" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -12414,11 +12778,13 @@
         <v>1296545.569399999</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>3.125</v>
+      </c>
       <c r="J303" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -12453,11 +12819,13 @@
         <v>1296545.569399999</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>3.125</v>
+      </c>
       <c r="J304" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -12492,13 +12860,13 @@
         <v>1326582.469399999</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I305" t="n">
         <v>3.125</v>
       </c>
       <c r="J305" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -12533,11 +12901,13 @@
         <v>1280525.889399999</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>3.139</v>
+      </c>
       <c r="J306" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -12572,11 +12942,13 @@
         <v>1170390.589399999</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>3.127</v>
+      </c>
       <c r="J307" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -12611,11 +12983,13 @@
         <v>1195421.339399999</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>3.123</v>
+      </c>
       <c r="J308" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -12650,11 +13024,13 @@
         <v>1292540.649399999</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>3.124</v>
+      </c>
       <c r="J309" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -12689,11 +13065,13 @@
         <v>1225065.757399999</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I310" t="n">
+        <v>3.139</v>
+      </c>
       <c r="J310" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -12728,11 +13106,13 @@
         <v>1158984.577399999</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I311" t="n">
+        <v>3.133</v>
+      </c>
       <c r="J311" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -12771,7 +13151,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -12810,7 +13190,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -12849,7 +13229,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -12888,7 +13268,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -12927,7 +13307,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -12966,7 +13346,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -13001,11 +13381,13 @@
         <v>1211048.5374</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I318" t="n">
+        <v>3.124</v>
+      </c>
       <c r="J318" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -13044,7 +13426,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -13083,7 +13465,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -13122,7 +13504,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -13161,7 +13543,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -13200,7 +13582,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -13239,7 +13621,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -13278,7 +13660,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -13317,7 +13699,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
@@ -13356,7 +13738,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
@@ -13395,7 +13777,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
@@ -13434,7 +13816,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
@@ -13473,7 +13855,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
@@ -13512,7 +13894,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
@@ -13551,7 +13933,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
@@ -13590,7 +13972,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K333" t="inlineStr">
         <is>
@@ -13629,7 +14011,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K334" t="inlineStr">
         <is>
@@ -13668,7 +14050,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K335" t="inlineStr">
         <is>
@@ -13707,7 +14089,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K336" t="inlineStr">
         <is>
@@ -13746,7 +14128,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
@@ -13785,7 +14167,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K338" t="inlineStr">
         <is>
@@ -13824,7 +14206,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K339" t="inlineStr">
         <is>
@@ -13863,7 +14245,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K340" t="inlineStr">
         <is>
@@ -13902,7 +14284,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K341" t="inlineStr">
         <is>
@@ -13941,7 +14323,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K342" t="inlineStr">
         <is>
@@ -13976,11 +14358,13 @@
         <v>652263.6421999995</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I343" t="n">
+        <v>3.114</v>
+      </c>
       <c r="J343" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K343" t="inlineStr">
         <is>
@@ -14015,11 +14399,13 @@
         <v>784541.9953999995</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I344" t="n">
+        <v>3.112</v>
+      </c>
       <c r="J344" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K344" t="inlineStr">
         <is>
@@ -14054,11 +14440,13 @@
         <v>842613.3353999995</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I345" t="n">
+        <v>3.121</v>
+      </c>
       <c r="J345" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K345" t="inlineStr">
         <is>
@@ -14093,11 +14481,13 @@
         <v>921710.5053999996</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I346" t="n">
+        <v>3.122</v>
+      </c>
       <c r="J346" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K346" t="inlineStr">
         <is>
@@ -14136,7 +14526,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K347" t="inlineStr">
         <is>
@@ -14175,7 +14565,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K348" t="inlineStr">
         <is>
@@ -14214,7 +14604,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K349" t="inlineStr">
         <is>
@@ -14253,7 +14643,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K350" t="inlineStr">
         <is>
@@ -14292,7 +14682,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K351" t="inlineStr">
         <is>
@@ -14331,7 +14721,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K352" t="inlineStr">
         <is>
@@ -14370,7 +14760,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K353" t="inlineStr">
         <is>
@@ -14409,7 +14799,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K354" t="inlineStr">
         <is>
@@ -14448,7 +14838,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K355" t="inlineStr">
         <is>
@@ -14487,7 +14877,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K356" t="inlineStr">
         <is>
@@ -14526,7 +14916,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K357" t="inlineStr">
         <is>
@@ -14565,7 +14955,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K358" t="inlineStr">
         <is>
@@ -14604,7 +14994,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K359" t="inlineStr">
         <is>
@@ -14643,7 +15033,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K360" t="inlineStr">
         <is>
@@ -14682,7 +15072,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K361" t="inlineStr">
         <is>
@@ -14721,7 +15111,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K362" t="inlineStr">
         <is>
@@ -14760,7 +15150,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K363" t="inlineStr">
         <is>
@@ -14799,7 +15189,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K364" t="inlineStr">
         <is>
@@ -14838,7 +15228,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K365" t="inlineStr">
         <is>
@@ -14877,7 +15267,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K366" t="inlineStr">
         <is>
@@ -14916,7 +15306,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K367" t="inlineStr">
         <is>
@@ -14951,11 +15341,11 @@
         <v>1819288.4504</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K368" t="inlineStr">
         <is>
@@ -14990,11 +15380,11 @@
         <v>1905394.2304</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K369" t="inlineStr">
         <is>
@@ -15029,11 +15419,11 @@
         <v>1802267.5404</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K370" t="inlineStr">
         <is>
@@ -15068,11 +15458,11 @@
         <v>1862341.3404</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K371" t="inlineStr">
         <is>
@@ -15107,11 +15497,11 @@
         <v>1863230.4324</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K372" t="inlineStr">
         <is>
@@ -15146,11 +15536,11 @@
         <v>1863230.4324</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K373" t="inlineStr">
         <is>
@@ -15185,11 +15575,11 @@
         <v>1751472.0716</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K374" t="inlineStr">
         <is>
@@ -15224,11 +15614,11 @@
         <v>1736453.6216</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K375" t="inlineStr">
         <is>
@@ -15267,7 +15657,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K376" t="inlineStr">
         <is>
@@ -15306,7 +15696,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K377" t="inlineStr">
         <is>
@@ -15345,7 +15735,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K378" t="inlineStr">
         <is>
@@ -15384,7 +15774,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K379" t="inlineStr">
         <is>
@@ -15423,7 +15813,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K380" t="inlineStr">
         <is>
@@ -15462,7 +15852,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K381" t="inlineStr">
         <is>
@@ -15501,7 +15891,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K382" t="inlineStr">
         <is>
@@ -15540,7 +15930,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K383" t="inlineStr">
         <is>
@@ -15579,7 +15969,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K384" t="inlineStr">
         <is>
@@ -15618,7 +16008,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K385" t="inlineStr">
         <is>
@@ -15657,7 +16047,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K386" t="inlineStr">
         <is>
@@ -15696,7 +16086,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K387" t="inlineStr">
         <is>
@@ -15735,7 +16125,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K388" t="inlineStr">
         <is>
@@ -15774,7 +16164,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K389" t="inlineStr">
         <is>
@@ -15813,7 +16203,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K390" t="inlineStr">
         <is>
@@ -15852,7 +16242,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K391" t="inlineStr">
         <is>
@@ -15891,7 +16281,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K392" t="inlineStr">
         <is>
@@ -15930,7 +16320,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K393" t="inlineStr">
         <is>
@@ -15969,7 +16359,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K394" t="inlineStr">
         <is>
@@ -16008,7 +16398,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K395" t="inlineStr">
         <is>
@@ -16047,7 +16437,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K396" t="inlineStr">
         <is>
@@ -16082,11 +16472,11 @@
         <v>2907210.017999999</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K397" t="inlineStr">
         <is>
@@ -16121,11 +16511,11 @@
         <v>2961276.437999999</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K398" t="inlineStr">
         <is>
@@ -16160,11 +16550,11 @@
         <v>2860152.207999999</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K399" t="inlineStr">
         <is>
@@ -16199,11 +16589,11 @@
         <v>2832117.767999999</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K400" t="inlineStr">
         <is>
@@ -16238,11 +16628,11 @@
         <v>2909941.372999999</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K401" t="inlineStr">
         <is>
@@ -16277,11 +16667,11 @@
         <v>2749744.572999999</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K402" t="inlineStr">
         <is>
@@ -16320,7 +16710,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K403" t="inlineStr">
         <is>
@@ -16359,7 +16749,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K404" t="inlineStr">
         <is>
@@ -16398,7 +16788,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K405" t="inlineStr">
         <is>
@@ -16437,7 +16827,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K406" t="inlineStr">
         <is>
@@ -16476,7 +16866,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K407" t="inlineStr">
         <is>
@@ -16515,7 +16905,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K408" t="inlineStr">
         <is>
@@ -16550,11 +16940,11 @@
         <v>2557585.8549</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K409" t="inlineStr">
         <is>
@@ -16589,11 +16979,11 @@
         <v>2624668.2649</v>
       </c>
       <c r="H410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K410" t="inlineStr">
         <is>
@@ -16628,11 +17018,11 @@
         <v>2558587.0849</v>
       </c>
       <c r="H411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K411" t="inlineStr">
         <is>
@@ -16667,11 +17057,11 @@
         <v>2521541.5749</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K412" t="inlineStr">
         <is>
@@ -16706,11 +17096,11 @@
         <v>2521541.5749</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K413" t="inlineStr">
         <is>
@@ -16745,11 +17135,11 @@
         <v>2577610.4549</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K414" t="inlineStr">
         <is>
@@ -16784,11 +17174,11 @@
         <v>2577810.4549</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K415" t="inlineStr">
         <is>
@@ -16827,7 +17217,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K416" t="inlineStr">
         <is>
@@ -16866,7 +17256,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K417" t="inlineStr">
         <is>
@@ -16905,7 +17295,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K418" t="inlineStr">
         <is>
@@ -16944,7 +17334,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K419" t="inlineStr">
         <is>
@@ -16983,7 +17373,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K420" t="inlineStr">
         <is>
@@ -17022,7 +17412,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K421" t="inlineStr">
         <is>
@@ -17061,7 +17451,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K422" t="inlineStr">
         <is>
@@ -17100,7 +17490,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K423" t="inlineStr">
         <is>
@@ -17135,11 +17525,11 @@
         <v>2553763.5322</v>
       </c>
       <c r="H424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K424" t="inlineStr">
         <is>
@@ -17174,11 +17564,11 @@
         <v>2522725.4022</v>
       </c>
       <c r="H425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K425" t="inlineStr">
         <is>
@@ -17213,11 +17603,11 @@
         <v>2538745.082200001</v>
       </c>
       <c r="H426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K426" t="inlineStr">
         <is>
@@ -17256,7 +17646,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K427" t="inlineStr">
         <is>
@@ -17295,7 +17685,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K428" t="inlineStr">
         <is>
@@ -17334,7 +17724,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K429" t="inlineStr">
         <is>
@@ -17373,7 +17763,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K430" t="inlineStr">
         <is>
@@ -17412,7 +17802,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K431" t="inlineStr">
         <is>
@@ -17451,7 +17841,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K432" t="inlineStr">
         <is>
@@ -17490,7 +17880,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K433" t="inlineStr">
         <is>
@@ -17529,7 +17919,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K434" t="inlineStr">
         <is>
@@ -17568,7 +17958,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K435" t="inlineStr">
         <is>
@@ -17607,7 +17997,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K436" t="inlineStr">
         <is>
@@ -17646,7 +18036,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K437" t="inlineStr">
         <is>
@@ -17685,7 +18075,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K438" t="inlineStr">
         <is>
@@ -17724,7 +18114,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K439" t="inlineStr">
         <is>
@@ -17763,7 +18153,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K440" t="inlineStr">
         <is>
@@ -17802,7 +18192,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K441" t="inlineStr">
         <is>
@@ -17841,7 +18231,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K442" t="inlineStr">
         <is>
@@ -17880,7 +18270,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K443" t="inlineStr">
         <is>
@@ -17919,7 +18309,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K444" t="inlineStr">
         <is>
@@ -17958,7 +18348,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K445" t="inlineStr">
         <is>
@@ -17997,7 +18387,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K446" t="inlineStr">
         <is>
@@ -18036,7 +18426,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K447" t="inlineStr">
         <is>
@@ -18075,7 +18465,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K448" t="inlineStr">
         <is>
@@ -18114,7 +18504,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K449" t="inlineStr">
         <is>
@@ -18153,7 +18543,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K450" t="inlineStr">
         <is>
@@ -18192,7 +18582,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K451" t="inlineStr">
         <is>
@@ -18231,7 +18621,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K452" t="inlineStr">
         <is>
@@ -18270,7 +18660,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K453" t="inlineStr">
         <is>
@@ -18309,7 +18699,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K454" t="inlineStr">
         <is>
@@ -18348,7 +18738,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K455" t="inlineStr">
         <is>
@@ -18387,7 +18777,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K456" t="inlineStr">
         <is>
@@ -18426,7 +18816,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K457" t="inlineStr">
         <is>
@@ -18465,7 +18855,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K458" t="inlineStr">
         <is>
@@ -18504,7 +18894,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K459" t="inlineStr">
         <is>
@@ -18543,7 +18933,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K460" t="inlineStr">
         <is>
@@ -18582,7 +18972,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K461" t="inlineStr">
         <is>
@@ -18621,7 +19011,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K462" t="inlineStr">
         <is>
@@ -18660,7 +19050,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K463" t="inlineStr">
         <is>
@@ -18699,7 +19089,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K464" t="inlineStr">
         <is>
@@ -18738,7 +19128,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K465" t="inlineStr">
         <is>
@@ -18777,7 +19167,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K466" t="inlineStr">
         <is>
@@ -18816,7 +19206,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K467" t="inlineStr">
         <is>
@@ -18855,7 +19245,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K468" t="inlineStr">
         <is>
@@ -18894,7 +19284,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K469" t="inlineStr">
         <is>
@@ -18933,7 +19323,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K470" t="inlineStr">
         <is>
@@ -18972,7 +19362,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K471" t="inlineStr">
         <is>
@@ -19011,7 +19401,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K472" t="inlineStr">
         <is>
@@ -19050,7 +19440,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K473" t="inlineStr">
         <is>
@@ -19089,7 +19479,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K474" t="inlineStr">
         <is>
@@ -19128,7 +19518,7 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K475" t="inlineStr">
         <is>
@@ -19167,7 +19557,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K476" t="inlineStr">
         <is>
@@ -19206,7 +19596,7 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K477" t="inlineStr">
         <is>
@@ -19245,7 +19635,7 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K478" t="inlineStr">
         <is>
@@ -19284,7 +19674,7 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K479" t="inlineStr">
         <is>
@@ -19319,11 +19709,11 @@
         <v>2520433.1969</v>
       </c>
       <c r="H480" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K480" t="inlineStr">
         <is>
@@ -19358,11 +19748,11 @@
         <v>2450155.7069</v>
       </c>
       <c r="H481" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K481" t="inlineStr">
         <is>
@@ -19397,11 +19787,11 @@
         <v>2545272.5569</v>
       </c>
       <c r="H482" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K482" t="inlineStr">
         <is>
@@ -19440,7 +19830,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K483" t="inlineStr">
         <is>
@@ -19479,7 +19869,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K484" t="inlineStr">
         <is>
@@ -19518,7 +19908,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K485" t="inlineStr">
         <is>
@@ -19553,11 +19943,11 @@
         <v>2573306.9969</v>
       </c>
       <c r="H486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K486" t="inlineStr">
         <is>
@@ -19596,7 +19986,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K487" t="inlineStr">
         <is>
@@ -19635,7 +20025,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K488" t="inlineStr">
         <is>
@@ -19674,7 +20064,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K489" t="inlineStr">
         <is>
@@ -19709,11 +20099,11 @@
         <v>2558383.6269</v>
       </c>
       <c r="H490" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K490" t="inlineStr">
         <is>
@@ -19752,7 +20142,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K491" t="inlineStr">
         <is>
@@ -19787,11 +20177,11 @@
         <v>2535304.744900001</v>
       </c>
       <c r="H492" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K492" t="inlineStr">
         <is>
@@ -19826,11 +20216,11 @@
         <v>2657943.423900001</v>
       </c>
       <c r="H493" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K493" t="inlineStr">
         <is>
@@ -19865,11 +20255,11 @@
         <v>2767077.493900001</v>
       </c>
       <c r="H494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K494" t="inlineStr">
         <is>
@@ -19904,11 +20294,11 @@
         <v>2767077.493900001</v>
       </c>
       <c r="H495" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K495" t="inlineStr">
         <is>
@@ -19943,11 +20333,11 @@
         <v>2748054.1239</v>
       </c>
       <c r="H496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K496" t="inlineStr">
         <is>
@@ -19982,11 +20372,11 @@
         <v>2713011.073900001</v>
       </c>
       <c r="H497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K497" t="inlineStr">
         <is>
@@ -20021,11 +20411,11 @@
         <v>2814135.303900001</v>
       </c>
       <c r="H498" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K498" t="inlineStr">
         <is>
@@ -20064,7 +20454,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K499" t="inlineStr">
         <is>
@@ -20103,7 +20493,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K500" t="inlineStr">
         <is>
@@ -20138,11 +20528,11 @@
         <v>2773259.8424</v>
       </c>
       <c r="H501" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K501" t="inlineStr">
         <is>
@@ -20177,11 +20567,11 @@
         <v>2843345.942400001</v>
       </c>
       <c r="H502" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K502" t="inlineStr">
         <is>
@@ -20216,11 +20606,11 @@
         <v>2760243.852400001</v>
       </c>
       <c r="H503" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K503" t="inlineStr">
         <is>
@@ -20259,7 +20649,7 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K504" t="inlineStr">
         <is>
@@ -20298,7 +20688,7 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K505" t="inlineStr">
         <is>
@@ -20337,7 +20727,7 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K506" t="inlineStr">
         <is>
@@ -20376,7 +20766,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K507" t="inlineStr">
         <is>
@@ -20415,7 +20805,7 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K508" t="inlineStr">
         <is>
@@ -20454,7 +20844,7 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K509" t="inlineStr">
         <is>
@@ -20493,7 +20883,7 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K510" t="inlineStr">
         <is>
@@ -20532,7 +20922,7 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K511" t="inlineStr">
         <is>
@@ -20571,7 +20961,7 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K512" t="inlineStr">
         <is>
@@ -20610,7 +21000,7 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K513" t="inlineStr">
         <is>
@@ -20649,7 +21039,7 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K514" t="inlineStr">
         <is>
@@ -20688,7 +21078,7 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K515" t="inlineStr">
         <is>
@@ -20727,7 +21117,7 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K516" t="inlineStr">
         <is>
@@ -20766,7 +21156,7 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K517" t="inlineStr">
         <is>
@@ -20805,7 +21195,7 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K518" t="inlineStr">
         <is>
@@ -20844,7 +21234,7 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K519" t="inlineStr">
         <is>
@@ -20883,7 +21273,7 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K520" t="inlineStr">
         <is>
@@ -20922,7 +21312,7 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K521" t="inlineStr">
         <is>
@@ -20961,7 +21351,7 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K522" t="inlineStr">
         <is>
@@ -21000,7 +21390,7 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K523" t="inlineStr">
         <is>
@@ -21039,7 +21429,7 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K524" t="inlineStr">
         <is>
@@ -21078,7 +21468,7 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K525" t="inlineStr">
         <is>
@@ -21117,7 +21507,7 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K526" t="inlineStr">
         <is>
@@ -21156,7 +21546,7 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K527" t="inlineStr">
         <is>
@@ -21195,7 +21585,7 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K528" t="inlineStr">
         <is>
@@ -21234,7 +21624,7 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K529" t="inlineStr">
         <is>
@@ -21273,7 +21663,7 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K530" t="inlineStr">
         <is>
@@ -21312,7 +21702,7 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K531" t="inlineStr">
         <is>
@@ -21351,7 +21741,7 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K532" t="inlineStr">
         <is>
@@ -21390,7 +21780,7 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K533" t="inlineStr">
         <is>
@@ -21429,7 +21819,7 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K534" t="inlineStr">
         <is>
@@ -21468,7 +21858,7 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K535" t="inlineStr">
         <is>
@@ -21507,7 +21897,7 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K536" t="inlineStr">
         <is>
@@ -21546,7 +21936,7 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K537" t="inlineStr">
         <is>
@@ -21585,7 +21975,7 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K538" t="inlineStr">
         <is>
@@ -21624,7 +22014,7 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K539" t="inlineStr">
         <is>
@@ -21663,7 +22053,7 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K540" t="inlineStr">
         <is>
@@ -21702,7 +22092,7 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K541" t="inlineStr">
         <is>
@@ -21741,7 +22131,7 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K542" t="inlineStr">
         <is>
@@ -21780,7 +22170,7 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K543" t="inlineStr">
         <is>
@@ -21819,7 +22209,7 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K544" t="inlineStr">
         <is>
@@ -21858,7 +22248,7 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K545" t="inlineStr">
         <is>
@@ -21897,7 +22287,7 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K546" t="inlineStr">
         <is>
@@ -21936,7 +22326,7 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K547" t="inlineStr">
         <is>
@@ -21975,7 +22365,7 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K548" t="inlineStr">
         <is>
@@ -22014,7 +22404,7 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K549" t="inlineStr">
         <is>
@@ -22053,7 +22443,7 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K550" t="inlineStr">
         <is>
@@ -22092,7 +22482,7 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K551" t="inlineStr">
         <is>
@@ -22131,7 +22521,7 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K552" t="inlineStr">
         <is>
@@ -22170,7 +22560,7 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K553" t="inlineStr">
         <is>
@@ -22209,7 +22599,7 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K554" t="inlineStr">
         <is>
@@ -22248,7 +22638,7 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K555" t="inlineStr">
         <is>
@@ -22287,7 +22677,7 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K556" t="inlineStr">
         <is>
@@ -22326,7 +22716,7 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K557" t="inlineStr">
         <is>
@@ -22365,7 +22755,7 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K558" t="inlineStr">
         <is>
@@ -22404,7 +22794,7 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K559" t="inlineStr">
         <is>
@@ -22443,7 +22833,7 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K560" t="inlineStr">
         <is>
@@ -22482,7 +22872,7 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K561" t="inlineStr">
         <is>
@@ -22517,19 +22907,19 @@
         <v>5361761.922341813</v>
       </c>
       <c r="H562" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="n">
-        <v>3.116</v>
+        <v>3.125</v>
       </c>
       <c r="K562" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L562" t="n">
-        <v>1.034152759948652</v>
+        <v>1</v>
       </c>
       <c r="M562" t="inlineStr"/>
     </row>
@@ -22556,11 +22946,17 @@
         <v>5388795.132341813</v>
       </c>
       <c r="H563" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -22589,11 +22985,17 @@
         <v>5297683.202341814</v>
       </c>
       <c r="H564" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -22622,11 +23024,17 @@
         <v>5476903.372341814</v>
       </c>
       <c r="H565" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -22655,11 +23063,17 @@
         <v>5390797.592341813</v>
       </c>
       <c r="H566" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -22688,11 +23102,17 @@
         <v>5391590.566341814</v>
       </c>
       <c r="H567" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -22721,13 +23141,19 @@
         <v>5288463.876341813</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L568" t="n">
-        <v>1</v>
+        <v>1.03948</v>
       </c>
       <c r="M568" t="inlineStr"/>
     </row>
@@ -22820,7 +23246,7 @@
         <v>5098063.041641813</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -22853,7 +23279,7 @@
         <v>5204193.421641813</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -22886,7 +23312,7 @@
         <v>5039991.701641813</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -23051,7 +23477,7 @@
         <v>5104995.447641812</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -23084,7 +23510,7 @@
         <v>5200112.297641812</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -23117,7 +23543,7 @@
         <v>5224952.149441812</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -23150,7 +23576,7 @@
         <v>5172965.253041812</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -23183,7 +23609,7 @@
         <v>5280096.863041813</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -23249,7 +23675,7 @@
         <v>5389230.933041813</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -23282,7 +23708,7 @@
         <v>5349181.733041813</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -23315,7 +23741,7 @@
         <v>5505500.951041813</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -23348,7 +23774,7 @@
         <v>5531532.931041813</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -23381,7 +23807,7 @@
         <v>5627651.011041814</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -23414,7 +23840,7 @@
         <v>5567657.309041814</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -23447,7 +23873,7 @@
         <v>5462528.159041814</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -23480,7 +23906,7 @@
         <v>5518597.039041813</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -23843,7 +24269,7 @@
         <v>5387333.079041814</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -23909,7 +24335,7 @@
         <v>5387333.079041814</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -23942,7 +24368,7 @@
         <v>5387333.079041814</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -23975,7 +24401,7 @@
         <v>5387333.079041814</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -24008,7 +24434,7 @@
         <v>5484652.389041814</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -24107,7 +24533,7 @@
         <v>5417269.979041814</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -24173,7 +24599,7 @@
         <v>5417269.979041814</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -24239,7 +24665,7 @@
         <v>5417269.979041814</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -24272,7 +24698,7 @@
         <v>5638379.556841814</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -24305,7 +24731,7 @@
         <v>5538056.556841814</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -24536,7 +24962,7 @@
         <v>5505117.196841814</v>
       </c>
       <c r="H623" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -24569,7 +24995,7 @@
         <v>5505117.196841814</v>
       </c>
       <c r="H624" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -24602,7 +25028,7 @@
         <v>5586216.826841814</v>
       </c>
       <c r="H625" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -24635,7 +25061,7 @@
         <v>5498108.586841813</v>
       </c>
       <c r="H626" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -24668,7 +25094,7 @@
         <v>5466570.456841813</v>
       </c>
       <c r="H627" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -24701,7 +25127,7 @@
         <v>5449950.776841814</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -24734,7 +25160,7 @@
         <v>5539049.919541813</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -24833,7 +25259,7 @@
         <v>5562083.530941813</v>
       </c>
       <c r="H632" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -24866,7 +25292,7 @@
         <v>5610703.224941813</v>
       </c>
       <c r="H633" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -24899,7 +25325,7 @@
         <v>5534609.744941813</v>
       </c>
       <c r="H634" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -24932,7 +25358,7 @@
         <v>5482545.784941813</v>
       </c>
       <c r="H635" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -24965,7 +25391,7 @@
         <v>5469529.794941813</v>
       </c>
       <c r="H636" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -24998,7 +25424,7 @@
         <v>5502570.384941813</v>
       </c>
       <c r="H637" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -25031,7 +25457,7 @@
         <v>5455512.574941813</v>
       </c>
       <c r="H638" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -25064,7 +25490,7 @@
         <v>5469529.794941813</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -25097,7 +25523,7 @@
         <v>5451507.654941813</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -25130,7 +25556,7 @@
         <v>5553633.114941813</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -25163,7 +25589,7 @@
         <v>5441001.036741813</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -25196,7 +25622,7 @@
         <v>5360902.636741812</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -25229,7 +25655,7 @@
         <v>5861328.993441813</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -25262,7 +25688,7 @@
         <v>5935420.013441812</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -25295,7 +25721,7 @@
         <v>5841304.393441812</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -25328,7 +25754,7 @@
         <v>5841304.393441812</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -25361,7 +25787,7 @@
         <v>5963454.453441812</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -25394,7 +25820,7 @@
         <v>5963454.453441812</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -25427,7 +25853,7 @@
         <v>5834694.586741812</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -25493,7 +25919,7 @@
         <v>4939775.357541812</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -25526,7 +25952,7 @@
         <v>4939775.357541812</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -25559,7 +25985,7 @@
         <v>4939775.357541812</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -25592,7 +26018,7 @@
         <v>4977822.097541812</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -25625,7 +26051,7 @@
         <v>4878700.327541812</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -25658,7 +26084,7 @@
         <v>4922754.447541812</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -25691,7 +26117,7 @@
         <v>4971814.717541812</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -25724,7 +26150,7 @@
         <v>4926759.367541812</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -25757,7 +26183,7 @@
         <v>5001851.617541812</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -25790,7 +26216,7 @@
         <v>4977822.097541813</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -25823,7 +26249,7 @@
         <v>4888712.627541813</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -25856,7 +26282,7 @@
         <v>4803159.526541813</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -25889,7 +26315,7 @@
         <v>4857225.946541813</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -25922,7 +26348,7 @@
         <v>4941329.266541814</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -25955,7 +26381,7 @@
         <v>4814173.056541814</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -25988,7 +26414,7 @@
         <v>4787139.846541814</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -26021,7 +26447,7 @@
         <v>4787139.846541814</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -26054,7 +26480,7 @@
         <v>4879253.006541814</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -26087,7 +26513,7 @@
         <v>4777755.996541814</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -26120,7 +26546,7 @@
         <v>4691650.216541814</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -26153,7 +26579,7 @@
         <v>4587921.743541813</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -26186,7 +26612,7 @@
         <v>4647995.543541813</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -26219,7 +26645,7 @@
         <v>4717080.413541813</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -26252,7 +26678,7 @@
         <v>4717080.413541813</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -26285,7 +26711,7 @@
         <v>4919328.873541813</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -26318,7 +26744,7 @@
         <v>4987412.513541813</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -26351,7 +26777,7 @@
         <v>4967387.913541813</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -26384,7 +26810,7 @@
         <v>4925336.253541813</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -26417,7 +26843,7 @@
         <v>4964384.223541813</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -26450,7 +26876,7 @@
         <v>5027461.713541813</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -26483,7 +26909,7 @@
         <v>5027461.713541813</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -26516,7 +26942,7 @@
         <v>4969614.649541813</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -26549,7 +26975,7 @@
         <v>5019676.149541813</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -26582,7 +27008,7 @@
         <v>5019676.149541813</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -26615,7 +27041,7 @@
         <v>5128810.219541813</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -26648,7 +27074,7 @@
         <v>5088761.019541813</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -26681,7 +27107,7 @@
         <v>4811465.245141814</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -26714,7 +27140,7 @@
         <v>4785433.265141813</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -26747,7 +27173,7 @@
         <v>4858523.055141813</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -26780,7 +27206,7 @@
         <v>4835494.765141813</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -26813,7 +27239,7 @@
         <v>4940623.915141813</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -26846,7 +27272,7 @@
         <v>4884555.035141814</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -26879,7 +27305,7 @@
         <v>4937620.225141814</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -26912,7 +27338,7 @@
         <v>4985679.265141814</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -26945,7 +27371,7 @@
         <v>4849511.985141814</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -26978,7 +27404,7 @@
         <v>4850481.176141813</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -27011,7 +27437,7 @@
         <v>4822446.736141813</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -27044,7 +27470,7 @@
         <v>4899541.446141813</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -27077,7 +27503,7 @@
         <v>4989652.146141813</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -27209,7 +27635,7 @@
         <v>5022692.736141814</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -27275,7 +27701,7 @@
         <v>5047723.486141814</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -27308,7 +27734,7 @@
         <v>5047723.486141814</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -27341,7 +27767,7 @@
         <v>4981642.306141814</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -27374,7 +27800,7 @@
         <v>4141233.468941814</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -27407,7 +27833,7 @@
         <v>4299427.808941814</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -30773,7 +31199,7 @@
         <v>4170063.269641815</v>
       </c>
       <c r="H812" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -30806,7 +31232,7 @@
         <v>4088963.639641815</v>
       </c>
       <c r="H813" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -30839,7 +31265,7 @@
         <v>4177071.879641816</v>
       </c>
       <c r="H814" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -30872,7 +31298,7 @@
         <v>4130014.069641815</v>
       </c>
       <c r="H815" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -30905,7 +31331,7 @@
         <v>4212114.929641816</v>
       </c>
       <c r="H816" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -30938,7 +31364,7 @@
         <v>4023743.627941816</v>
       </c>
       <c r="H817" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -30971,7 +31397,7 @@
         <v>4023743.627941816</v>
       </c>
       <c r="H818" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -31004,7 +31430,7 @@
         <v>3589272.876941815</v>
       </c>
       <c r="H819" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -31037,7 +31463,7 @@
         <v>3637331.916941816</v>
       </c>
       <c r="H820" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -31070,7 +31496,7 @@
         <v>3713425.396941816</v>
       </c>
       <c r="H821" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -32159,7 +32585,7 @@
         <v>3473216.537941815</v>
       </c>
       <c r="H854" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -32258,7 +32684,7 @@
         <v>3381789.863041815</v>
       </c>
       <c r="H857" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -33787,6 +34213,6 @@
       <c r="M903" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-26 BackTest CON.xlsx
+++ b/BackTest/2020-01-26 BackTest CON.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,14 +484,10 @@
         <v>8879.821900000024</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>36914.26190000003</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>204119.6719</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3.114</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,19 +583,11 @@
         <v>134033.5719</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3.127</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -647,14 +619,8 @@
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -683,19 +649,11 @@
         <v>103996.6719</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3.122</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -724,19 +682,11 @@
         <v>57940.09190000001</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -771,13 +721,9 @@
         <v>3.112</v>
       </c>
       <c r="J10" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>3.112</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -806,17 +752,15 @@
         <v>143044.6419</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3.117</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>3.125</v>
+        <v>3.112</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L11" t="n">
@@ -847,17 +791,15 @@
         <v>45925.33190000002</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>3.115</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>3.125</v>
+        <v>3.112</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L12" t="n">
@@ -894,13 +836,9 @@
         <v>3.113</v>
       </c>
       <c r="J13" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>3.113</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -935,11 +873,11 @@
         <v>3.118</v>
       </c>
       <c r="J14" t="n">
-        <v>3.125</v>
+        <v>3.113</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L14" t="n">
@@ -970,17 +908,15 @@
         <v>83972.07190000004</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3.114</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
-        <v>3.125</v>
+        <v>3.113</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -1011,19 +947,11 @@
         <v>191103.6819</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3.116</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1052,19 +980,11 @@
         <v>118013.8919</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3.124</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1099,13 +1019,9 @@
         <v>3.115</v>
       </c>
       <c r="J18" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>3.115</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1134,17 +1050,15 @@
         <v>135034.8019</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>3.121</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
-        <v>3.125</v>
+        <v>3.115</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L19" t="n">
@@ -1175,17 +1089,15 @@
         <v>63947.47190000002</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>3.114</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
-        <v>3.125</v>
+        <v>3.115</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L20" t="n">
@@ -1216,19 +1128,11 @@
         <v>164070.4719</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1257,19 +1161,11 @@
         <v>164070.4719</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1298,19 +1194,11 @@
         <v>152055.7119</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1344,12 +1232,10 @@
       <c r="I24" t="n">
         <v>3.112</v>
       </c>
-      <c r="J24" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L24" t="n">
@@ -1385,9 +1271,7 @@
       <c r="I25" t="n">
         <v>3.111</v>
       </c>
-      <c r="J25" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1421,14 +1305,10 @@
         <v>189742.0089</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>3.123</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1462,14 +1342,10 @@
         <v>173722.3289</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>3.124</v>
-      </c>
-      <c r="J27" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1503,14 +1379,10 @@
         <v>91621.46890000002</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>3.117</v>
-      </c>
-      <c r="J28" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1544,14 +1416,10 @@
         <v>127665.7489</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>3.115</v>
-      </c>
-      <c r="J29" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1585,14 +1453,10 @@
         <v>231793.6689</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>3.118</v>
-      </c>
-      <c r="J30" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1626,14 +1490,10 @@
         <v>162708.7989</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>3.121</v>
-      </c>
-      <c r="J31" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1667,14 +1527,10 @@
         <v>86615.31890000003</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>3.117</v>
-      </c>
-      <c r="J32" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1708,14 +1564,10 @@
         <v>34551.35890000003</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>3.116</v>
-      </c>
-      <c r="J33" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1754,9 +1606,7 @@
       <c r="I34" t="n">
         <v>3.114</v>
       </c>
-      <c r="J34" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1790,14 +1640,10 @@
         <v>-11937.75209999997</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="J35" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1836,9 +1682,7 @@
       <c r="I36" t="n">
         <v>3.111</v>
       </c>
-      <c r="J36" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1877,9 +1721,7 @@
       <c r="I37" t="n">
         <v>3.112</v>
       </c>
-      <c r="J37" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1918,9 +1760,7 @@
       <c r="I38" t="n">
         <v>3.118</v>
       </c>
-      <c r="J38" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1959,9 +1799,7 @@
       <c r="I39" t="n">
         <v>3.113</v>
       </c>
-      <c r="J39" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1995,14 +1833,10 @@
         <v>25107.75790000006</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>3.116</v>
-      </c>
-      <c r="J40" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2041,9 +1875,7 @@
       <c r="I41" t="n">
         <v>3.114</v>
       </c>
-      <c r="J41" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2082,9 +1914,7 @@
       <c r="I42" t="n">
         <v>3.118</v>
       </c>
-      <c r="J42" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2118,14 +1948,10 @@
         <v>124229.5279000001</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="J43" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2164,9 +1990,7 @@
       <c r="I44" t="n">
         <v>3.114</v>
       </c>
-      <c r="J44" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2205,9 +2029,7 @@
       <c r="I45" t="n">
         <v>3.118</v>
       </c>
-      <c r="J45" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2246,9 +2068,7 @@
       <c r="I46" t="n">
         <v>3.117</v>
       </c>
-      <c r="J46" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2287,9 +2107,7 @@
       <c r="I47" t="n">
         <v>3.119</v>
       </c>
-      <c r="J47" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2328,9 +2146,7 @@
       <c r="I48" t="n">
         <v>3.113</v>
       </c>
-      <c r="J48" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2369,9 +2185,7 @@
       <c r="I49" t="n">
         <v>3.116</v>
       </c>
-      <c r="J49" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2410,9 +2224,7 @@
       <c r="I50" t="n">
         <v>3.118</v>
       </c>
-      <c r="J50" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2451,9 +2263,7 @@
       <c r="I51" t="n">
         <v>3.112</v>
       </c>
-      <c r="J51" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2492,9 +2302,7 @@
       <c r="I52" t="n">
         <v>3.116</v>
       </c>
-      <c r="J52" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2533,9 +2341,7 @@
       <c r="I53" t="n">
         <v>3.112</v>
       </c>
-      <c r="J53" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2574,9 +2380,7 @@
       <c r="I54" t="n">
         <v>3.117</v>
       </c>
-      <c r="J54" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2615,9 +2419,7 @@
       <c r="I55" t="n">
         <v>3.113</v>
       </c>
-      <c r="J55" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2656,9 +2458,7 @@
       <c r="I56" t="n">
         <v>3.114</v>
       </c>
-      <c r="J56" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2697,9 +2497,7 @@
       <c r="I57" t="n">
         <v>3.115</v>
       </c>
-      <c r="J57" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2738,9 +2536,7 @@
       <c r="I58" t="n">
         <v>3.117</v>
       </c>
-      <c r="J58" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2779,9 +2575,7 @@
       <c r="I59" t="n">
         <v>3.115</v>
       </c>
-      <c r="J59" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2820,9 +2614,7 @@
       <c r="I60" t="n">
         <v>3.114</v>
       </c>
-      <c r="J60" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2861,9 +2653,7 @@
       <c r="I61" t="n">
         <v>3.116</v>
       </c>
-      <c r="J61" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2902,9 +2692,7 @@
       <c r="I62" t="n">
         <v>3.114</v>
       </c>
-      <c r="J62" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2943,9 +2731,7 @@
       <c r="I63" t="n">
         <v>3.112</v>
       </c>
-      <c r="J63" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2984,9 +2770,7 @@
       <c r="I64" t="n">
         <v>3.114</v>
       </c>
-      <c r="J64" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3025,9 +2809,7 @@
       <c r="I65" t="n">
         <v>3.116</v>
       </c>
-      <c r="J65" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3066,9 +2848,7 @@
       <c r="I66" t="n">
         <v>3.12</v>
       </c>
-      <c r="J66" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3107,9 +2887,7 @@
       <c r="I67" t="n">
         <v>3.112</v>
       </c>
-      <c r="J67" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3148,9 +2926,7 @@
       <c r="I68" t="n">
         <v>3.115</v>
       </c>
-      <c r="J68" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3189,9 +2965,7 @@
       <c r="I69" t="n">
         <v>3.119</v>
       </c>
-      <c r="J69" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3230,9 +3004,7 @@
       <c r="I70" t="n">
         <v>3.113</v>
       </c>
-      <c r="J70" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3271,9 +3043,7 @@
       <c r="I71" t="n">
         <v>3.113</v>
       </c>
-      <c r="J71" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3312,9 +3082,7 @@
       <c r="I72" t="n">
         <v>3.119</v>
       </c>
-      <c r="J72" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3353,9 +3121,7 @@
       <c r="I73" t="n">
         <v>3.117</v>
       </c>
-      <c r="J73" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3394,9 +3160,7 @@
       <c r="I74" t="n">
         <v>3.118</v>
       </c>
-      <c r="J74" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3435,9 +3199,7 @@
       <c r="I75" t="n">
         <v>3.115</v>
       </c>
-      <c r="J75" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3476,9 +3238,7 @@
       <c r="I76" t="n">
         <v>3.112</v>
       </c>
-      <c r="J76" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3517,9 +3277,7 @@
       <c r="I77" t="n">
         <v>3.119</v>
       </c>
-      <c r="J77" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3558,9 +3316,7 @@
       <c r="I78" t="n">
         <v>3.112</v>
       </c>
-      <c r="J78" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3599,9 +3355,7 @@
       <c r="I79" t="n">
         <v>3.112</v>
       </c>
-      <c r="J79" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3640,9 +3394,7 @@
       <c r="I80" t="n">
         <v>3.115</v>
       </c>
-      <c r="J80" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3681,9 +3433,7 @@
       <c r="I81" t="n">
         <v>3.116</v>
       </c>
-      <c r="J81" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3722,9 +3472,7 @@
       <c r="I82" t="n">
         <v>3.114</v>
       </c>
-      <c r="J82" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3763,9 +3511,7 @@
       <c r="I83" t="n">
         <v>3.113</v>
       </c>
-      <c r="J83" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3804,9 +3550,7 @@
       <c r="I84" t="n">
         <v>3.117</v>
       </c>
-      <c r="J84" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3845,9 +3589,7 @@
       <c r="I85" t="n">
         <v>3.112</v>
       </c>
-      <c r="J85" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3886,9 +3628,7 @@
       <c r="I86" t="n">
         <v>3.115</v>
       </c>
-      <c r="J86" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3927,9 +3667,7 @@
       <c r="I87" t="n">
         <v>3.12</v>
       </c>
-      <c r="J87" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3968,9 +3706,7 @@
       <c r="I88" t="n">
         <v>3.117</v>
       </c>
-      <c r="J88" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4009,9 +3745,7 @@
       <c r="I89" t="n">
         <v>3.116</v>
       </c>
-      <c r="J89" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4050,9 +3784,7 @@
       <c r="I90" t="n">
         <v>3.119</v>
       </c>
-      <c r="J90" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4091,9 +3823,7 @@
       <c r="I91" t="n">
         <v>3.12</v>
       </c>
-      <c r="J91" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4132,9 +3862,7 @@
       <c r="I92" t="n">
         <v>3.118</v>
       </c>
-      <c r="J92" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4173,9 +3901,7 @@
       <c r="I93" t="n">
         <v>3.112</v>
       </c>
-      <c r="J93" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4214,9 +3940,7 @@
       <c r="I94" t="n">
         <v>3.117</v>
       </c>
-      <c r="J94" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4255,9 +3979,7 @@
       <c r="I95" t="n">
         <v>3.118</v>
       </c>
-      <c r="J95" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4296,9 +4018,7 @@
       <c r="I96" t="n">
         <v>3.113</v>
       </c>
-      <c r="J96" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4337,9 +4057,7 @@
       <c r="I97" t="n">
         <v>3.115</v>
       </c>
-      <c r="J97" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4378,9 +4096,7 @@
       <c r="I98" t="n">
         <v>3.114</v>
       </c>
-      <c r="J98" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4419,9 +4135,7 @@
       <c r="I99" t="n">
         <v>3.112</v>
       </c>
-      <c r="J99" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4460,9 +4174,7 @@
       <c r="I100" t="n">
         <v>3.119</v>
       </c>
-      <c r="J100" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4501,9 +4213,7 @@
       <c r="I101" t="n">
         <v>3.119</v>
       </c>
-      <c r="J101" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4542,9 +4252,7 @@
       <c r="I102" t="n">
         <v>3.117</v>
       </c>
-      <c r="J102" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4583,9 +4291,7 @@
       <c r="I103" t="n">
         <v>3.118</v>
       </c>
-      <c r="J103" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4624,9 +4330,7 @@
       <c r="I104" t="n">
         <v>3.114</v>
       </c>
-      <c r="J104" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4665,9 +4369,7 @@
       <c r="I105" t="n">
         <v>3.116</v>
       </c>
-      <c r="J105" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4706,9 +4408,7 @@
       <c r="I106" t="n">
         <v>3.115</v>
       </c>
-      <c r="J106" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4747,9 +4447,7 @@
       <c r="I107" t="n">
         <v>3.116</v>
       </c>
-      <c r="J107" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4788,9 +4486,7 @@
       <c r="I108" t="n">
         <v>3.118</v>
       </c>
-      <c r="J108" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4829,9 +4525,7 @@
       <c r="I109" t="n">
         <v>3.111</v>
       </c>
-      <c r="J109" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4870,9 +4564,7 @@
       <c r="I110" t="n">
         <v>3.115</v>
       </c>
-      <c r="J110" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4911,9 +4603,7 @@
       <c r="I111" t="n">
         <v>3.117</v>
       </c>
-      <c r="J111" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4952,9 +4642,7 @@
       <c r="I112" t="n">
         <v>3.118</v>
       </c>
-      <c r="J112" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4993,9 +4681,7 @@
       <c r="I113" t="n">
         <v>3.119</v>
       </c>
-      <c r="J113" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5034,9 +4720,7 @@
       <c r="I114" t="n">
         <v>3.114</v>
       </c>
-      <c r="J114" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5075,9 +4759,7 @@
       <c r="I115" t="n">
         <v>3.116</v>
       </c>
-      <c r="J115" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5116,9 +4798,7 @@
       <c r="I116" t="n">
         <v>3.116</v>
       </c>
-      <c r="J116" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5157,9 +4837,7 @@
       <c r="I117" t="n">
         <v>3.119</v>
       </c>
-      <c r="J117" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5198,9 +4876,7 @@
       <c r="I118" t="n">
         <v>3.118</v>
       </c>
-      <c r="J118" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5239,9 +4915,7 @@
       <c r="I119" t="n">
         <v>3.113</v>
       </c>
-      <c r="J119" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5280,9 +4954,7 @@
       <c r="I120" t="n">
         <v>3.113</v>
       </c>
-      <c r="J120" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5321,9 +4993,7 @@
       <c r="I121" t="n">
         <v>3.118</v>
       </c>
-      <c r="J121" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5362,9 +5032,7 @@
       <c r="I122" t="n">
         <v>3.114</v>
       </c>
-      <c r="J122" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5403,9 +5071,7 @@
       <c r="I123" t="n">
         <v>3.116</v>
       </c>
-      <c r="J123" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5444,9 +5110,7 @@
       <c r="I124" t="n">
         <v>3.113</v>
       </c>
-      <c r="J124" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5485,9 +5149,7 @@
       <c r="I125" t="n">
         <v>3.12</v>
       </c>
-      <c r="J125" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5526,9 +5188,7 @@
       <c r="I126" t="n">
         <v>3.114</v>
       </c>
-      <c r="J126" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5567,9 +5227,7 @@
       <c r="I127" t="n">
         <v>3.118</v>
       </c>
-      <c r="J127" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5608,9 +5266,7 @@
       <c r="I128" t="n">
         <v>3.117</v>
       </c>
-      <c r="J128" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5649,9 +5305,7 @@
       <c r="I129" t="n">
         <v>3.115</v>
       </c>
-      <c r="J129" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5690,9 +5344,7 @@
       <c r="I130" t="n">
         <v>3.112</v>
       </c>
-      <c r="J130" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5731,9 +5383,7 @@
       <c r="I131" t="n">
         <v>3.112</v>
       </c>
-      <c r="J131" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5772,9 +5422,7 @@
       <c r="I132" t="n">
         <v>3.115</v>
       </c>
-      <c r="J132" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5813,9 +5461,7 @@
       <c r="I133" t="n">
         <v>3.116</v>
       </c>
-      <c r="J133" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5854,9 +5500,7 @@
       <c r="I134" t="n">
         <v>3.119</v>
       </c>
-      <c r="J134" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5895,9 +5539,7 @@
       <c r="I135" t="n">
         <v>3.115</v>
       </c>
-      <c r="J135" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5936,9 +5578,7 @@
       <c r="I136" t="n">
         <v>3.112</v>
       </c>
-      <c r="J136" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5977,9 +5617,7 @@
       <c r="I137" t="n">
         <v>3.114</v>
       </c>
-      <c r="J137" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6018,9 +5656,7 @@
       <c r="I138" t="n">
         <v>3.111</v>
       </c>
-      <c r="J138" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6059,9 +5695,7 @@
       <c r="I139" t="n">
         <v>3.118</v>
       </c>
-      <c r="J139" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6100,9 +5734,7 @@
       <c r="I140" t="n">
         <v>3.112</v>
       </c>
-      <c r="J140" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6141,9 +5773,7 @@
       <c r="I141" t="n">
         <v>3.112</v>
       </c>
-      <c r="J141" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6182,9 +5812,7 @@
       <c r="I142" t="n">
         <v>3.112</v>
       </c>
-      <c r="J142" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6223,9 +5851,7 @@
       <c r="I143" t="n">
         <v>3.115</v>
       </c>
-      <c r="J143" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6264,9 +5890,7 @@
       <c r="I144" t="n">
         <v>3.112</v>
       </c>
-      <c r="J144" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6305,9 +5929,7 @@
       <c r="I145" t="n">
         <v>3.112</v>
       </c>
-      <c r="J145" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6346,9 +5968,7 @@
       <c r="I146" t="n">
         <v>3.117</v>
       </c>
-      <c r="J146" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6387,9 +6007,7 @@
       <c r="I147" t="n">
         <v>3.112</v>
       </c>
-      <c r="J147" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6428,9 +6046,7 @@
       <c r="I148" t="n">
         <v>3.112</v>
       </c>
-      <c r="J148" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6469,9 +6085,7 @@
       <c r="I149" t="n">
         <v>3.112</v>
       </c>
-      <c r="J149" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6510,9 +6124,7 @@
       <c r="I150" t="n">
         <v>3.112</v>
       </c>
-      <c r="J150" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6551,9 +6163,7 @@
       <c r="I151" t="n">
         <v>3.114</v>
       </c>
-      <c r="J151" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6592,9 +6202,7 @@
       <c r="I152" t="n">
         <v>3.113</v>
       </c>
-      <c r="J152" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6633,9 +6241,7 @@
       <c r="I153" t="n">
         <v>3.113</v>
       </c>
-      <c r="J153" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6674,9 +6280,7 @@
       <c r="I154" t="n">
         <v>3.116</v>
       </c>
-      <c r="J154" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6715,9 +6319,7 @@
       <c r="I155" t="n">
         <v>3.114</v>
       </c>
-      <c r="J155" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6756,9 +6358,7 @@
       <c r="I156" t="n">
         <v>3.115</v>
       </c>
-      <c r="J156" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6797,9 +6397,7 @@
       <c r="I157" t="n">
         <v>3.116</v>
       </c>
-      <c r="J157" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6838,9 +6436,7 @@
       <c r="I158" t="n">
         <v>3.113</v>
       </c>
-      <c r="J158" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6879,9 +6475,7 @@
       <c r="I159" t="n">
         <v>3.116</v>
       </c>
-      <c r="J159" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6920,9 +6514,7 @@
       <c r="I160" t="n">
         <v>3.113</v>
       </c>
-      <c r="J160" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6961,9 +6553,7 @@
       <c r="I161" t="n">
         <v>3.112</v>
       </c>
-      <c r="J161" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7002,9 +6592,7 @@
       <c r="I162" t="n">
         <v>3.113</v>
       </c>
-      <c r="J162" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7043,9 +6631,7 @@
       <c r="I163" t="n">
         <v>3.113</v>
       </c>
-      <c r="J163" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7084,9 +6670,7 @@
       <c r="I164" t="n">
         <v>3.114</v>
       </c>
-      <c r="J164" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7125,9 +6709,7 @@
       <c r="I165" t="n">
         <v>3.117</v>
       </c>
-      <c r="J165" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7166,9 +6748,7 @@
       <c r="I166" t="n">
         <v>3.113</v>
       </c>
-      <c r="J166" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7207,9 +6787,7 @@
       <c r="I167" t="n">
         <v>3.113</v>
       </c>
-      <c r="J167" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7248,9 +6826,7 @@
       <c r="I168" t="n">
         <v>3.113</v>
       </c>
-      <c r="J168" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7289,9 +6865,7 @@
       <c r="I169" t="n">
         <v>3.113</v>
       </c>
-      <c r="J169" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7330,9 +6904,7 @@
       <c r="I170" t="n">
         <v>3.112</v>
       </c>
-      <c r="J170" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7371,9 +6943,7 @@
       <c r="I171" t="n">
         <v>3.111</v>
       </c>
-      <c r="J171" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7412,9 +6982,7 @@
       <c r="I172" t="n">
         <v>3.116</v>
       </c>
-      <c r="J172" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7453,9 +7021,7 @@
       <c r="I173" t="n">
         <v>3.111</v>
       </c>
-      <c r="J173" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7494,9 +7060,7 @@
       <c r="I174" t="n">
         <v>3.111</v>
       </c>
-      <c r="J174" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7535,9 +7099,7 @@
       <c r="I175" t="n">
         <v>3.111</v>
       </c>
-      <c r="J175" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7576,9 +7138,7 @@
       <c r="I176" t="n">
         <v>3.111</v>
       </c>
-      <c r="J176" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7617,9 +7177,7 @@
       <c r="I177" t="n">
         <v>3.113</v>
       </c>
-      <c r="J177" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7658,9 +7216,7 @@
       <c r="I178" t="n">
         <v>3.113</v>
       </c>
-      <c r="J178" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7699,9 +7255,7 @@
       <c r="I179" t="n">
         <v>3.118</v>
       </c>
-      <c r="J179" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7740,9 +7294,7 @@
       <c r="I180" t="n">
         <v>3.114</v>
       </c>
-      <c r="J180" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7781,9 +7333,7 @@
       <c r="I181" t="n">
         <v>3.114</v>
       </c>
-      <c r="J181" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7822,9 +7372,7 @@
       <c r="I182" t="n">
         <v>3.111</v>
       </c>
-      <c r="J182" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7863,9 +7411,7 @@
       <c r="I183" t="n">
         <v>3.112</v>
       </c>
-      <c r="J183" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7899,14 +7445,10 @@
         <v>1195376.5492</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="J184" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7940,14 +7482,10 @@
         <v>1142311.3592</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>3.115</v>
-      </c>
-      <c r="J185" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7981,14 +7519,10 @@
         <v>1171347.0292</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>3.114</v>
-      </c>
-      <c r="J186" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8022,14 +7556,10 @@
         <v>1190370.3992</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>3.118</v>
-      </c>
-      <c r="J187" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8063,14 +7593,10 @@
         <v>1155327.3492</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="J188" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8104,14 +7630,10 @@
         <v>1256451.5792</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>3.114</v>
-      </c>
-      <c r="J189" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8145,14 +7667,10 @@
         <v>1256451.5792</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>3.115</v>
-      </c>
-      <c r="J190" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8186,14 +7704,10 @@
         <v>1333546.2892</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>3.115</v>
-      </c>
-      <c r="J191" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8227,14 +7741,10 @@
         <v>1424274.9912</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="J192" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8268,14 +7778,10 @@
         <v>1271086.8012</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="J193" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8309,14 +7815,10 @@
         <v>1271086.8012</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>3.117</v>
-      </c>
-      <c r="J194" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8350,14 +7852,10 @@
         <v>1225030.2212</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>3.117</v>
-      </c>
-      <c r="J195" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8391,14 +7889,10 @@
         <v>1114894.9212</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>3.112</v>
-      </c>
-      <c r="J196" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8432,14 +7926,10 @@
         <v>1139925.6712</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>3.111</v>
-      </c>
-      <c r="J197" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8473,14 +7963,10 @@
         <v>1042806.3612</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="J198" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8514,14 +8000,10 @@
         <v>1109888.7712</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>3.116</v>
-      </c>
-      <c r="J199" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8555,14 +8037,10 @@
         <v>1006762.0812</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>3.118</v>
-      </c>
-      <c r="J200" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8596,14 +8074,10 @@
         <v>1006055.6292</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>3.111</v>
-      </c>
-      <c r="J201" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8637,14 +8111,10 @@
         <v>1113187.2392</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="J202" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8678,14 +8148,10 @@
         <v>1164249.9692</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>3.114</v>
-      </c>
-      <c r="J203" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8719,14 +8185,10 @@
         <v>1186277.0292</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>3.115</v>
-      </c>
-      <c r="J204" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8760,14 +8222,10 @@
         <v>1152235.2092</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>3.118</v>
-      </c>
-      <c r="J205" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8801,14 +8259,10 @@
         <v>1169256.1192</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>3.117</v>
-      </c>
-      <c r="J206" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8842,14 +8296,10 @@
         <v>1098168.7892</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>3.118</v>
-      </c>
-      <c r="J207" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8883,14 +8333,10 @@
         <v>1198291.7892</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="J208" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8924,14 +8370,10 @@
         <v>1230331.1492</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>3.118</v>
-      </c>
-      <c r="J209" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8965,14 +8407,10 @@
         <v>1137216.7592</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="J210" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9006,14 +8444,10 @@
         <v>1049108.5192</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>3.114</v>
-      </c>
-      <c r="J211" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9047,14 +8481,10 @@
         <v>1080146.6492</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>3.111</v>
-      </c>
-      <c r="J212" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9088,14 +8518,10 @@
         <v>1096166.3292</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>3.117</v>
-      </c>
-      <c r="J213" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9129,14 +8555,10 @@
         <v>1013865.4692</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="J214" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9170,14 +8592,10 @@
         <v>977621.1891999996</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>3.118</v>
-      </c>
-      <c r="J215" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9211,14 +8629,10 @@
         <v>977821.1891999996</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>3.117</v>
-      </c>
-      <c r="J216" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9252,14 +8666,10 @@
         <v>977821.1891999996</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="J217" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9293,14 +8703,10 @@
         <v>977821.1891999996</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="J218" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9334,14 +8740,10 @@
         <v>977821.1891999996</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="J219" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9375,14 +8777,10 @@
         <v>977821.1891999996</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="J220" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9416,14 +8814,10 @@
         <v>873493.2691999995</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="J221" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9457,14 +8851,10 @@
         <v>873493.2691999995</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="J222" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9498,14 +8888,10 @@
         <v>873493.2691999995</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="J223" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9539,14 +8925,10 @@
         <v>873493.2691999995</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="J224" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9580,14 +8962,10 @@
         <v>873493.2691999995</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="J225" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9621,14 +8999,10 @@
         <v>873493.2691999995</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="J226" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9662,14 +9036,10 @@
         <v>873493.2691999995</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="J227" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9703,14 +9073,10 @@
         <v>873493.2691999995</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="J228" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9744,14 +9110,10 @@
         <v>873493.2691999995</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="J229" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9785,14 +9147,10 @@
         <v>873493.2691999995</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="J230" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9826,14 +9184,10 @@
         <v>873493.2691999995</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="J231" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9867,14 +9221,10 @@
         <v>873493.2691999995</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="J232" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9908,14 +9258,10 @@
         <v>873493.2691999995</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="J233" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9949,14 +9295,10 @@
         <v>873493.2691999995</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="J234" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9990,14 +9332,10 @@
         <v>873493.2691999995</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="J235" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10031,14 +9369,10 @@
         <v>873493.2691999995</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="J236" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10072,14 +9406,10 @@
         <v>873493.2691999995</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="J237" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10113,14 +9443,10 @@
         <v>873493.2691999995</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="J238" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10154,14 +9480,10 @@
         <v>873493.2691999995</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="J239" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10195,14 +9517,10 @@
         <v>874061.9681999995</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="J240" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10236,14 +9554,10 @@
         <v>794964.7981999995</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="J241" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10277,14 +9591,10 @@
         <v>794964.7981999995</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="J242" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10318,14 +9628,10 @@
         <v>794964.7981999995</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="J243" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10359,14 +9665,10 @@
         <v>794964.7981999995</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="J244" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10400,14 +9702,10 @@
         <v>794964.7981999995</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="J245" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10441,14 +9739,10 @@
         <v>794964.7981999995</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="J246" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10482,14 +9776,10 @@
         <v>794964.7981999995</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="J247" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10523,14 +9813,10 @@
         <v>794964.7981999995</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="J248" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10569,9 +9855,7 @@
       <c r="I249" t="n">
         <v>3.119</v>
       </c>
-      <c r="J249" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10610,9 +9894,7 @@
       <c r="I250" t="n">
         <v>3.119</v>
       </c>
-      <c r="J250" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10646,14 +9928,10 @@
         <v>794964.7981999995</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="J251" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10692,9 +9970,7 @@
       <c r="I252" t="n">
         <v>3.119</v>
       </c>
-      <c r="J252" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10733,9 +10009,7 @@
       <c r="I253" t="n">
         <v>3.119</v>
       </c>
-      <c r="J253" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10774,9 +10048,7 @@
       <c r="I254" t="n">
         <v>3.119</v>
       </c>
-      <c r="J254" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10815,9 +10087,7 @@
       <c r="I255" t="n">
         <v>3.119</v>
       </c>
-      <c r="J255" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10856,9 +10126,7 @@
       <c r="I256" t="n">
         <v>3.119</v>
       </c>
-      <c r="J256" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10897,9 +10165,7 @@
       <c r="I257" t="n">
         <v>3.12</v>
       </c>
-      <c r="J257" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10938,9 +10204,7 @@
       <c r="I258" t="n">
         <v>3.119</v>
       </c>
-      <c r="J258" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10979,9 +10243,7 @@
       <c r="I259" t="n">
         <v>3.119</v>
       </c>
-      <c r="J259" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11020,9 +10282,7 @@
       <c r="I260" t="n">
         <v>3.119</v>
       </c>
-      <c r="J260" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11061,9 +10321,7 @@
       <c r="I261" t="n">
         <v>3.119</v>
       </c>
-      <c r="J261" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11102,9 +10360,7 @@
       <c r="I262" t="n">
         <v>3.119</v>
       </c>
-      <c r="J262" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11143,9 +10399,7 @@
       <c r="I263" t="n">
         <v>3.119</v>
       </c>
-      <c r="J263" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11184,9 +10438,7 @@
       <c r="I264" t="n">
         <v>3.119</v>
       </c>
-      <c r="J264" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11225,9 +10477,7 @@
       <c r="I265" t="n">
         <v>3.118</v>
       </c>
-      <c r="J265" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11266,9 +10516,7 @@
       <c r="I266" t="n">
         <v>3.117</v>
       </c>
-      <c r="J266" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11307,9 +10555,7 @@
       <c r="I267" t="n">
         <v>3.117</v>
       </c>
-      <c r="J267" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11348,9 +10594,7 @@
       <c r="I268" t="n">
         <v>3.117</v>
       </c>
-      <c r="J268" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11389,9 +10633,7 @@
       <c r="I269" t="n">
         <v>3.117</v>
       </c>
-      <c r="J269" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11430,9 +10672,7 @@
       <c r="I270" t="n">
         <v>3.117</v>
       </c>
-      <c r="J270" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11471,9 +10711,7 @@
       <c r="I271" t="n">
         <v>3.117</v>
       </c>
-      <c r="J271" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11512,9 +10750,7 @@
       <c r="I272" t="n">
         <v>3.117</v>
       </c>
-      <c r="J272" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11553,9 +10789,7 @@
       <c r="I273" t="n">
         <v>3.117</v>
       </c>
-      <c r="J273" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11594,9 +10828,7 @@
       <c r="I274" t="n">
         <v>3.117</v>
       </c>
-      <c r="J274" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11635,9 +10867,7 @@
       <c r="I275" t="n">
         <v>3.117</v>
       </c>
-      <c r="J275" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11676,9 +10906,7 @@
       <c r="I276" t="n">
         <v>3.117</v>
       </c>
-      <c r="J276" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11717,9 +10945,7 @@
       <c r="I277" t="n">
         <v>3.117</v>
       </c>
-      <c r="J277" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11758,9 +10984,7 @@
       <c r="I278" t="n">
         <v>3.117</v>
       </c>
-      <c r="J278" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11799,9 +11023,7 @@
       <c r="I279" t="n">
         <v>3.117</v>
       </c>
-      <c r="J279" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11840,9 +11062,7 @@
       <c r="I280" t="n">
         <v>3.117</v>
       </c>
-      <c r="J280" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11881,9 +11101,7 @@
       <c r="I281" t="n">
         <v>3.117</v>
       </c>
-      <c r="J281" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11922,9 +11140,7 @@
       <c r="I282" t="n">
         <v>3.117</v>
       </c>
-      <c r="J282" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11963,9 +11179,7 @@
       <c r="I283" t="n">
         <v>3.117</v>
       </c>
-      <c r="J283" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12004,9 +11218,7 @@
       <c r="I284" t="n">
         <v>3.118</v>
       </c>
-      <c r="J284" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12045,9 +11257,7 @@
       <c r="I285" t="n">
         <v>3.117</v>
       </c>
-      <c r="J285" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12086,9 +11296,7 @@
       <c r="I286" t="n">
         <v>3.117</v>
       </c>
-      <c r="J286" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12127,9 +11335,7 @@
       <c r="I287" t="n">
         <v>3.118</v>
       </c>
-      <c r="J287" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12168,9 +11374,7 @@
       <c r="I288" t="n">
         <v>3.117</v>
       </c>
-      <c r="J288" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12209,9 +11413,7 @@
       <c r="I289" t="n">
         <v>3.116</v>
       </c>
-      <c r="J289" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12250,9 +11452,7 @@
       <c r="I290" t="n">
         <v>3.117</v>
       </c>
-      <c r="J290" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12291,9 +11491,7 @@
       <c r="I291" t="n">
         <v>3.117</v>
       </c>
-      <c r="J291" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12332,9 +11530,7 @@
       <c r="I292" t="n">
         <v>3.117</v>
       </c>
-      <c r="J292" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12373,9 +11569,7 @@
       <c r="I293" t="n">
         <v>3.116</v>
       </c>
-      <c r="J293" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12414,9 +11608,7 @@
       <c r="I294" t="n">
         <v>3.116</v>
       </c>
-      <c r="J294" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12455,9 +11647,7 @@
       <c r="I295" t="n">
         <v>3.116</v>
       </c>
-      <c r="J295" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12496,9 +11686,7 @@
       <c r="I296" t="n">
         <v>3.116</v>
       </c>
-      <c r="J296" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12537,9 +11725,7 @@
       <c r="I297" t="n">
         <v>3.115</v>
       </c>
-      <c r="J297" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12578,9 +11764,7 @@
       <c r="I298" t="n">
         <v>3.128</v>
       </c>
-      <c r="J298" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12614,14 +11798,10 @@
         <v>1244481.609399999</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
-      </c>
-      <c r="I299" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="J299" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12655,14 +11835,10 @@
         <v>1345605.839399999</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
-      </c>
-      <c r="I300" t="n">
-        <v>3.123</v>
-      </c>
-      <c r="J300" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12696,14 +11872,10 @@
         <v>1373640.279399999</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
-      </c>
-      <c r="I301" t="n">
-        <v>3.124</v>
-      </c>
-      <c r="J301" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12737,14 +11909,10 @@
         <v>1296545.569399999</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
-      </c>
-      <c r="I302" t="n">
-        <v>3.126</v>
-      </c>
-      <c r="J302" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12778,14 +11946,10 @@
         <v>1296545.569399999</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
-      </c>
-      <c r="I303" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="J303" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12819,14 +11983,10 @@
         <v>1296545.569399999</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
-      </c>
-      <c r="I304" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="J304" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12860,14 +12020,10 @@
         <v>1326582.469399999</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
-      </c>
-      <c r="I305" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="J305" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12901,14 +12057,10 @@
         <v>1280525.889399999</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
-      </c>
-      <c r="I306" t="n">
-        <v>3.139</v>
-      </c>
-      <c r="J306" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12942,14 +12094,10 @@
         <v>1170390.589399999</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
-      </c>
-      <c r="I307" t="n">
-        <v>3.127</v>
-      </c>
-      <c r="J307" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12983,14 +12131,10 @@
         <v>1195421.339399999</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
-      </c>
-      <c r="I308" t="n">
-        <v>3.123</v>
-      </c>
-      <c r="J308" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13024,14 +12168,10 @@
         <v>1292540.649399999</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
-      </c>
-      <c r="I309" t="n">
-        <v>3.124</v>
-      </c>
-      <c r="J309" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13065,14 +12205,10 @@
         <v>1225065.757399999</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
-      </c>
-      <c r="I310" t="n">
-        <v>3.139</v>
-      </c>
-      <c r="J310" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13106,14 +12242,10 @@
         <v>1158984.577399999</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
-      </c>
-      <c r="I311" t="n">
-        <v>3.133</v>
-      </c>
-      <c r="J311" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13150,9 +12282,7 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13189,9 +12319,7 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13228,9 +12356,7 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13267,9 +12393,7 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13306,9 +12430,7 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13345,9 +12467,7 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13381,14 +12501,10 @@
         <v>1211048.5374</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
-      </c>
-      <c r="I318" t="n">
-        <v>3.124</v>
-      </c>
-      <c r="J318" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13425,9 +12541,7 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13464,9 +12578,7 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13503,9 +12615,7 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13542,9 +12652,7 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13581,9 +12689,7 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13620,9 +12726,7 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13659,9 +12763,7 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13698,9 +12800,7 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13737,9 +12837,7 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13776,9 +12874,7 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13815,9 +12911,7 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13854,9 +12948,7 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13893,9 +12985,7 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13932,9 +13022,7 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13971,9 +13059,7 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14010,9 +13096,7 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14049,9 +13133,7 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14088,9 +13170,7 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14127,9 +13207,7 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14166,9 +13244,7 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14205,9 +13281,7 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14244,9 +13318,7 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14283,9 +13355,7 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14322,9 +13392,7 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14358,14 +13426,10 @@
         <v>652263.6421999995</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
-      </c>
-      <c r="I343" t="n">
-        <v>3.114</v>
-      </c>
-      <c r="J343" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I343" t="inlineStr"/>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14399,14 +13463,10 @@
         <v>784541.9953999995</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
-      </c>
-      <c r="I344" t="n">
-        <v>3.112</v>
-      </c>
-      <c r="J344" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I344" t="inlineStr"/>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14440,14 +13500,10 @@
         <v>842613.3353999995</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
-      </c>
-      <c r="I345" t="n">
-        <v>3.121</v>
-      </c>
-      <c r="J345" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I345" t="inlineStr"/>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14481,14 +13537,10 @@
         <v>921710.5053999996</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
-      </c>
-      <c r="I346" t="n">
-        <v>3.122</v>
-      </c>
-      <c r="J346" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14525,9 +13577,7 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14564,9 +13614,7 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14603,9 +13651,7 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14642,9 +13688,7 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14681,9 +13725,7 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14720,9 +13762,7 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14759,9 +13799,7 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14798,9 +13836,7 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14837,9 +13873,7 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14876,9 +13910,7 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14915,9 +13947,7 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14954,9 +13984,7 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14993,9 +14021,7 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15032,9 +14058,7 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15071,9 +14095,7 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15110,9 +14132,7 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15149,9 +14169,7 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15188,9 +14206,7 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15227,9 +14243,7 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15266,9 +14280,7 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15305,9 +14317,7 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15344,9 +14354,7 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15383,9 +14391,7 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15422,9 +14428,7 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15461,9 +14465,7 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15500,9 +14502,7 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15539,9 +14539,7 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15578,9 +14576,7 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15617,9 +14613,7 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15656,9 +14650,7 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15695,9 +14687,7 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15734,9 +14724,7 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15773,9 +14761,7 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15812,9 +14798,7 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15851,9 +14835,7 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15890,9 +14872,7 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15929,9 +14909,7 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15968,9 +14946,7 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16007,9 +14983,7 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16043,20 +15017,16 @@
         <v>1538668.246</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>3.125</v>
-      </c>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L386" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L386" t="inlineStr"/>
       <c r="M386" t="inlineStr"/>
     </row>
     <row r="387">
@@ -16082,17 +15052,11 @@
         <v>1636788.786</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -16121,17 +15085,11 @@
         <v>1527654.716</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -16160,17 +15118,11 @@
         <v>1483057.497999999</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -16199,17 +15151,11 @@
         <v>1404961.557999999</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -16241,14 +15187,8 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -16280,14 +15220,8 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -16319,14 +15253,8 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -16358,14 +15286,8 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -16397,14 +15319,8 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -16436,14 +15352,8 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -16472,17 +15382,11 @@
         <v>2907210.017999999</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -16511,17 +15415,11 @@
         <v>2961276.437999999</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -16553,14 +15451,8 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -16589,17 +15481,11 @@
         <v>2832117.767999999</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -16631,14 +15517,8 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -16670,14 +15550,8 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -16709,14 +15583,8 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -16748,14 +15616,8 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -16787,14 +15649,8 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -16826,14 +15682,8 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -16865,14 +15715,8 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -16904,14 +15748,8 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -16943,14 +15781,8 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -16982,14 +15814,8 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -17021,14 +15847,8 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -17060,14 +15880,8 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -17099,14 +15913,8 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -17138,14 +15946,8 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -17177,14 +15979,8 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -17216,14 +16012,8 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -17255,14 +16045,8 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -17294,14 +16078,8 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -17333,14 +16111,8 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -17372,14 +16144,8 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -17411,14 +16177,8 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -17450,14 +16210,8 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -17489,14 +16243,8 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -17528,14 +16276,8 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -17567,14 +16309,8 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -17606,14 +16342,8 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -17645,14 +16375,8 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -17684,14 +16408,8 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -17723,14 +16441,8 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -17762,14 +16474,8 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -17801,14 +16507,8 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -17840,14 +16540,8 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -17879,14 +16573,8 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -17918,14 +16606,8 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -17957,14 +16639,8 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -17996,14 +16672,8 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -18035,14 +16705,8 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -18074,14 +16738,8 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -18113,14 +16771,8 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -18152,14 +16804,8 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -18191,14 +16837,8 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -18230,14 +16870,8 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -18269,14 +16903,8 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -18308,14 +16936,8 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -18347,14 +16969,8 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -18386,14 +17002,8 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -18425,14 +17035,8 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -18464,14 +17068,8 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -18503,14 +17101,8 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -18542,14 +17134,8 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -18581,14 +17167,8 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -18620,14 +17200,8 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -18659,14 +17233,8 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -18698,14 +17266,8 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -18737,14 +17299,8 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -18776,14 +17332,8 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -18815,14 +17365,8 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -18854,14 +17398,8 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -18893,14 +17431,8 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -18932,14 +17464,8 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -18971,14 +17497,8 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -19010,14 +17530,8 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -19049,14 +17563,8 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -19088,14 +17596,8 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -19127,14 +17629,8 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -19166,14 +17662,8 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -19205,14 +17695,8 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -19244,14 +17728,8 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -19283,14 +17761,8 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -19322,14 +17794,8 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -19361,14 +17827,8 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -19400,14 +17860,8 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -19439,14 +17893,8 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -19478,14 +17926,8 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -19517,14 +17959,8 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -19556,14 +17992,8 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -19595,14 +18025,8 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -19634,14 +18058,8 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J478" t="inlineStr"/>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -19673,14 +18091,8 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -19712,14 +18124,8 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -19751,14 +18157,8 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -19790,14 +18190,8 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J482" t="inlineStr"/>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -19829,14 +18223,8 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J483" t="inlineStr"/>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -19868,14 +18256,8 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J484" t="inlineStr"/>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -19907,14 +18289,8 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J485" t="inlineStr"/>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -19946,14 +18322,8 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J486" t="inlineStr"/>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -19985,14 +18355,8 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J487" t="inlineStr"/>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -20024,14 +18388,8 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J488" t="inlineStr"/>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -20063,14 +18421,8 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J489" t="inlineStr"/>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -20102,14 +18454,8 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J490" t="inlineStr"/>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -20141,14 +18487,8 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J491" t="inlineStr"/>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -20180,14 +18520,8 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J492" t="inlineStr"/>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -20219,14 +18553,8 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J493" t="inlineStr"/>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -20258,14 +18586,8 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J494" t="inlineStr"/>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -20297,14 +18619,8 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J495" t="inlineStr"/>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -20336,14 +18652,8 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J496" t="inlineStr"/>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -20375,14 +18685,8 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J497" t="inlineStr"/>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -20414,14 +18718,8 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J498" t="inlineStr"/>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -20453,14 +18751,8 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J499" t="inlineStr"/>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -20492,14 +18784,8 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J500" t="inlineStr"/>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -20531,14 +18817,8 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J501" t="inlineStr"/>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -20570,14 +18850,8 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J502" t="inlineStr"/>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -20609,14 +18883,8 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J503" t="inlineStr"/>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -20648,14 +18916,8 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J504" t="inlineStr"/>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -20687,14 +18949,8 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J505" t="inlineStr"/>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -20726,14 +18982,8 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J506" t="inlineStr"/>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -20765,14 +19015,8 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J507" t="inlineStr"/>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -20804,14 +19048,8 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J508" t="inlineStr"/>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -20843,14 +19081,8 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J509" t="inlineStr"/>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -20882,14 +19114,8 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J510" t="inlineStr"/>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -20921,14 +19147,8 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J511" t="inlineStr"/>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -20960,14 +19180,8 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J512" t="inlineStr"/>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -20999,14 +19213,8 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J513" t="inlineStr"/>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -21038,14 +19246,8 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J514" t="inlineStr"/>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -21077,14 +19279,8 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J515" t="inlineStr"/>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -21116,14 +19312,8 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J516" t="inlineStr"/>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -21155,14 +19345,8 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J517" t="inlineStr"/>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -21194,14 +19378,8 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J518" t="inlineStr"/>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -21233,14 +19411,8 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J519" t="inlineStr"/>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -21272,14 +19444,8 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J520" t="inlineStr"/>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -21311,14 +19477,8 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J521" t="inlineStr"/>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -21350,14 +19510,8 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J522" t="inlineStr"/>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -21389,14 +19543,8 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J523" t="inlineStr"/>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -21428,14 +19576,8 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J524" t="inlineStr"/>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -21467,14 +19609,8 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J525" t="inlineStr"/>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -21506,14 +19642,8 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J526" t="inlineStr"/>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -21545,14 +19675,8 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J527" t="inlineStr"/>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -21584,14 +19708,8 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J528" t="inlineStr"/>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -21623,14 +19741,8 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J529" t="inlineStr"/>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -21662,14 +19774,8 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J530" t="inlineStr"/>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -21701,14 +19807,8 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J531" t="inlineStr"/>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -21740,14 +19840,8 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J532" t="inlineStr"/>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -21779,14 +19873,8 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J533" t="inlineStr"/>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -21818,14 +19906,8 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J534" t="inlineStr"/>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -21857,14 +19939,8 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J535" t="inlineStr"/>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -21896,14 +19972,8 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J536" t="inlineStr"/>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -21935,14 +20005,8 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J537" t="inlineStr"/>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -21974,14 +20038,8 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J538" t="inlineStr"/>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -22013,14 +20071,8 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J539" t="inlineStr"/>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -22052,14 +20104,8 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J540" t="inlineStr"/>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -22091,14 +20137,8 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J541" t="inlineStr"/>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -22130,14 +20170,8 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J542" t="inlineStr"/>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -22169,14 +20203,8 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J543" t="inlineStr"/>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -22208,14 +20236,8 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J544" t="inlineStr"/>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -22247,14 +20269,8 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J545" t="inlineStr"/>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -22286,14 +20302,8 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J546" t="inlineStr"/>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -22325,14 +20335,8 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J547" t="inlineStr"/>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -22364,14 +20368,8 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J548" t="inlineStr"/>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -22403,14 +20401,8 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J549" t="inlineStr"/>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -22442,14 +20434,8 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J550" t="inlineStr"/>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -22481,14 +20467,8 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J551" t="inlineStr"/>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -22520,14 +20500,8 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J552" t="inlineStr"/>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -22559,14 +20533,8 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J553" t="inlineStr"/>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -22598,14 +20566,8 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J554" t="inlineStr"/>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -22637,14 +20599,8 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J555" t="inlineStr"/>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -22676,14 +20632,8 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J556" t="inlineStr"/>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -22715,14 +20665,8 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J557" t="inlineStr"/>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -22754,14 +20698,8 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J558" t="inlineStr"/>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -22793,14 +20731,8 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J559" t="inlineStr"/>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -22832,14 +20764,8 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J560" t="inlineStr"/>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -22871,14 +20797,8 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J561" t="inlineStr"/>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -22910,14 +20830,8 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J562" t="inlineStr"/>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -22949,14 +20863,8 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J563" t="inlineStr"/>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -22988,14 +20896,8 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J564" t="inlineStr"/>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -23027,14 +20929,8 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J565" t="inlineStr"/>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -23066,14 +20962,8 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J566" t="inlineStr"/>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -23105,14 +20995,8 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J567" t="inlineStr"/>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -23141,19 +21025,13 @@
         <v>5288463.876341813</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J568" t="inlineStr"/>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
-        <v>1.03948</v>
+        <v>1</v>
       </c>
       <c r="M568" t="inlineStr"/>
     </row>
@@ -23246,7 +21124,7 @@
         <v>5098063.041641813</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -23279,7 +21157,7 @@
         <v>5204193.421641813</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -23312,7 +21190,7 @@
         <v>5039991.701641813</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -23477,7 +21355,7 @@
         <v>5104995.447641812</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -23510,7 +21388,7 @@
         <v>5200112.297641812</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -23543,7 +21421,7 @@
         <v>5224952.149441812</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -23576,7 +21454,7 @@
         <v>5172965.253041812</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -23609,7 +21487,7 @@
         <v>5280096.863041813</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -23675,7 +21553,7 @@
         <v>5389230.933041813</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -23708,7 +21586,7 @@
         <v>5349181.733041813</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -23741,7 +21619,7 @@
         <v>5505500.951041813</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -23774,7 +21652,7 @@
         <v>5531532.931041813</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -23939,7 +21817,7 @@
         <v>5571662.229041814</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -23972,7 +21850,7 @@
         <v>5542626.559041814</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -24269,7 +22147,7 @@
         <v>5387333.079041814</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -24335,7 +22213,7 @@
         <v>5387333.079041814</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -24368,7 +22246,7 @@
         <v>5387333.079041814</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -24401,7 +22279,7 @@
         <v>5387333.079041814</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -24434,7 +22312,7 @@
         <v>5484652.389041814</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -24533,7 +22411,7 @@
         <v>5417269.979041814</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -24599,7 +22477,7 @@
         <v>5417269.979041814</v>
       </c>
       <c r="H612" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -24665,7 +22543,7 @@
         <v>5417269.979041814</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -24698,7 +22576,7 @@
         <v>5638379.556841814</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -24731,7 +22609,7 @@
         <v>5538056.556841814</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -24962,7 +22840,7 @@
         <v>5505117.196841814</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -24995,7 +22873,7 @@
         <v>5505117.196841814</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -25028,7 +22906,7 @@
         <v>5586216.826841814</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -25061,7 +22939,7 @@
         <v>5498108.586841813</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -25094,7 +22972,7 @@
         <v>5466570.456841813</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -25127,7 +23005,7 @@
         <v>5449950.776841814</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -25160,7 +23038,7 @@
         <v>5539049.919541813</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -25325,7 +23203,7 @@
         <v>5534609.744941813</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -25358,7 +23236,7 @@
         <v>5482545.784941813</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -25391,7 +23269,7 @@
         <v>5469529.794941813</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -25424,7 +23302,7 @@
         <v>5502570.384941813</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -25457,7 +23335,7 @@
         <v>5455512.574941813</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -25490,7 +23368,7 @@
         <v>5469529.794941813</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -25523,7 +23401,7 @@
         <v>5451507.654941813</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -25556,7 +23434,7 @@
         <v>5553633.114941813</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -25589,7 +23467,7 @@
         <v>5441001.036741813</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -25622,7 +23500,7 @@
         <v>5360902.636741812</v>
       </c>
       <c r="H643" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -25655,7 +23533,7 @@
         <v>5861328.993441813</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -25688,7 +23566,7 @@
         <v>5935420.013441812</v>
       </c>
       <c r="H645" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -25721,7 +23599,7 @@
         <v>5841304.393441812</v>
       </c>
       <c r="H646" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -25754,7 +23632,7 @@
         <v>5841304.393441812</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -25787,7 +23665,7 @@
         <v>5963454.453441812</v>
       </c>
       <c r="H648" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -25820,7 +23698,7 @@
         <v>5963454.453441812</v>
       </c>
       <c r="H649" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -25853,7 +23731,7 @@
         <v>5834694.586741812</v>
       </c>
       <c r="H650" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -25919,7 +23797,7 @@
         <v>4939775.357541812</v>
       </c>
       <c r="H652" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -25952,7 +23830,7 @@
         <v>4939775.357541812</v>
       </c>
       <c r="H653" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -25985,7 +23863,7 @@
         <v>4939775.357541812</v>
       </c>
       <c r="H654" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -26018,7 +23896,7 @@
         <v>4977822.097541812</v>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -26051,7 +23929,7 @@
         <v>4878700.327541812</v>
       </c>
       <c r="H656" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -26084,7 +23962,7 @@
         <v>4922754.447541812</v>
       </c>
       <c r="H657" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -26117,7 +23995,7 @@
         <v>4971814.717541812</v>
       </c>
       <c r="H658" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -26150,7 +24028,7 @@
         <v>4926759.367541812</v>
       </c>
       <c r="H659" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -26183,7 +24061,7 @@
         <v>5001851.617541812</v>
       </c>
       <c r="H660" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -26216,7 +24094,7 @@
         <v>4977822.097541813</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -26249,7 +24127,7 @@
         <v>4888712.627541813</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -26282,7 +24160,7 @@
         <v>4803159.526541813</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -26315,7 +24193,7 @@
         <v>4857225.946541813</v>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -26348,7 +24226,7 @@
         <v>4941329.266541814</v>
       </c>
       <c r="H665" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -26381,7 +24259,7 @@
         <v>4814173.056541814</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -26414,7 +24292,7 @@
         <v>4787139.846541814</v>
       </c>
       <c r="H667" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -26447,7 +24325,7 @@
         <v>4787139.846541814</v>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -26480,7 +24358,7 @@
         <v>4879253.006541814</v>
       </c>
       <c r="H669" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -26513,7 +24391,7 @@
         <v>4777755.996541814</v>
       </c>
       <c r="H670" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -26546,7 +24424,7 @@
         <v>4691650.216541814</v>
       </c>
       <c r="H671" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -26579,7 +24457,7 @@
         <v>4587921.743541813</v>
       </c>
       <c r="H672" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -26612,7 +24490,7 @@
         <v>4647995.543541813</v>
       </c>
       <c r="H673" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -26645,7 +24523,7 @@
         <v>4717080.413541813</v>
       </c>
       <c r="H674" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -26678,7 +24556,7 @@
         <v>4717080.413541813</v>
       </c>
       <c r="H675" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -26711,7 +24589,7 @@
         <v>4919328.873541813</v>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -26744,7 +24622,7 @@
         <v>4987412.513541813</v>
       </c>
       <c r="H677" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -26777,7 +24655,7 @@
         <v>4967387.913541813</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -26810,7 +24688,7 @@
         <v>4925336.253541813</v>
       </c>
       <c r="H679" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -26843,7 +24721,7 @@
         <v>4964384.223541813</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -26876,7 +24754,7 @@
         <v>5027461.713541813</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -26909,7 +24787,7 @@
         <v>5027461.713541813</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -26942,7 +24820,7 @@
         <v>4969614.649541813</v>
       </c>
       <c r="H683" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -26975,7 +24853,7 @@
         <v>5019676.149541813</v>
       </c>
       <c r="H684" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -27008,7 +24886,7 @@
         <v>5019676.149541813</v>
       </c>
       <c r="H685" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -27041,7 +24919,7 @@
         <v>5128810.219541813</v>
       </c>
       <c r="H686" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -27074,7 +24952,7 @@
         <v>5088761.019541813</v>
       </c>
       <c r="H687" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -27107,7 +24985,7 @@
         <v>4811465.245141814</v>
       </c>
       <c r="H688" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -27140,7 +25018,7 @@
         <v>4785433.265141813</v>
       </c>
       <c r="H689" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -27173,7 +25051,7 @@
         <v>4858523.055141813</v>
       </c>
       <c r="H690" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -27206,7 +25084,7 @@
         <v>4835494.765141813</v>
       </c>
       <c r="H691" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -27239,7 +25117,7 @@
         <v>4940623.915141813</v>
       </c>
       <c r="H692" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -27272,7 +25150,7 @@
         <v>4884555.035141814</v>
       </c>
       <c r="H693" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -27305,7 +25183,7 @@
         <v>4937620.225141814</v>
       </c>
       <c r="H694" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -27338,7 +25216,7 @@
         <v>4985679.265141814</v>
       </c>
       <c r="H695" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -27371,7 +25249,7 @@
         <v>4849511.985141814</v>
       </c>
       <c r="H696" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -27404,7 +25282,7 @@
         <v>4850481.176141813</v>
       </c>
       <c r="H697" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -27437,7 +25315,7 @@
         <v>4822446.736141813</v>
       </c>
       <c r="H698" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -27470,7 +25348,7 @@
         <v>4899541.446141813</v>
       </c>
       <c r="H699" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -27503,7 +25381,7 @@
         <v>4989652.146141813</v>
       </c>
       <c r="H700" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -27635,7 +25513,7 @@
         <v>5022692.736141814</v>
       </c>
       <c r="H704" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -27701,7 +25579,7 @@
         <v>5047723.486141814</v>
       </c>
       <c r="H706" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -27734,7 +25612,7 @@
         <v>5047723.486141814</v>
       </c>
       <c r="H707" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -27767,7 +25645,7 @@
         <v>4981642.306141814</v>
       </c>
       <c r="H708" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -27800,7 +25678,7 @@
         <v>4141233.468941814</v>
       </c>
       <c r="H709" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -27833,7 +25711,7 @@
         <v>4299427.808941814</v>
       </c>
       <c r="H710" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -31298,7 +29176,7 @@
         <v>4130014.069641815</v>
       </c>
       <c r="H815" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -31331,7 +29209,7 @@
         <v>4212114.929641816</v>
       </c>
       <c r="H816" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -31364,7 +29242,7 @@
         <v>4023743.627941816</v>
       </c>
       <c r="H817" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -31397,7 +29275,7 @@
         <v>4023743.627941816</v>
       </c>
       <c r="H818" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -31430,7 +29308,7 @@
         <v>3589272.876941815</v>
       </c>
       <c r="H819" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -31463,7 +29341,7 @@
         <v>3637331.916941816</v>
       </c>
       <c r="H820" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -31496,7 +29374,7 @@
         <v>3713425.396941816</v>
       </c>
       <c r="H821" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -34213,6 +32091,6 @@
       <c r="M903" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-26 BackTest CON.xlsx
+++ b/BackTest/2020-01-26 BackTest CON.xlsx
@@ -484,10 +484,14 @@
         <v>8879.821900000024</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>36914.26190000003</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.113</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>204119.6719</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.114</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +603,19 @@
         <v>134033.5719</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.127</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +644,19 @@
         <v>134033.5719</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.122</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +685,19 @@
         <v>103996.6719</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.122</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +726,19 @@
         <v>57940.09190000001</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.119</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -721,9 +773,13 @@
         <v>3.112</v>
       </c>
       <c r="J10" t="n">
-        <v>3.112</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
+        <v>3.125</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -752,15 +808,17 @@
         <v>143044.6419</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.117</v>
+      </c>
       <c r="J11" t="n">
-        <v>3.112</v>
+        <v>3.125</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L11" t="n">
@@ -791,15 +849,17 @@
         <v>45925.33190000002</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3.115</v>
+      </c>
       <c r="J12" t="n">
-        <v>3.112</v>
+        <v>3.125</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L12" t="n">
@@ -836,9 +896,13 @@
         <v>3.113</v>
       </c>
       <c r="J13" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
+        <v>3.125</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -873,11 +937,11 @@
         <v>3.118</v>
       </c>
       <c r="J14" t="n">
-        <v>3.113</v>
+        <v>3.125</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L14" t="n">
@@ -908,15 +972,17 @@
         <v>83972.07190000004</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3.114</v>
+      </c>
       <c r="J15" t="n">
-        <v>3.113</v>
+        <v>3.125</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -947,11 +1013,19 @@
         <v>191103.6819</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3.116</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -980,11 +1054,19 @@
         <v>118013.8919</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3.124</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1019,9 +1101,13 @@
         <v>3.115</v>
       </c>
       <c r="J18" t="n">
-        <v>3.115</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
+        <v>3.125</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1050,15 +1136,17 @@
         <v>135034.8019</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3.121</v>
+      </c>
       <c r="J19" t="n">
-        <v>3.115</v>
+        <v>3.125</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L19" t="n">
@@ -1089,15 +1177,17 @@
         <v>63947.47190000002</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3.114</v>
+      </c>
       <c r="J20" t="n">
-        <v>3.115</v>
+        <v>3.125</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L20" t="n">
@@ -1128,11 +1218,19 @@
         <v>164070.4719</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3.113</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1161,11 +1259,19 @@
         <v>164070.4719</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1194,11 +1300,19 @@
         <v>152055.7119</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1232,10 +1346,12 @@
       <c r="I24" t="n">
         <v>3.112</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L24" t="n">
@@ -1271,7 +1387,9 @@
       <c r="I25" t="n">
         <v>3.111</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1305,10 +1423,14 @@
         <v>189742.0089</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3.123</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1342,10 +1464,14 @@
         <v>173722.3289</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3.124</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1379,10 +1505,14 @@
         <v>91621.46890000002</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3.117</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1416,10 +1546,14 @@
         <v>127665.7489</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1453,10 +1587,14 @@
         <v>231793.6689</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3.118</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1490,10 +1628,14 @@
         <v>162708.7989</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3.121</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1527,10 +1669,14 @@
         <v>86615.31890000003</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3.117</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1564,10 +1710,14 @@
         <v>34551.35890000003</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3.116</v>
+      </c>
+      <c r="J33" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1606,7 +1756,9 @@
       <c r="I34" t="n">
         <v>3.114</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1640,10 +1792,14 @@
         <v>-11937.75209999997</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>3.113</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1682,7 +1838,9 @@
       <c r="I36" t="n">
         <v>3.111</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1721,7 +1879,9 @@
       <c r="I37" t="n">
         <v>3.112</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1760,7 +1920,9 @@
       <c r="I38" t="n">
         <v>3.118</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1799,7 +1961,9 @@
       <c r="I39" t="n">
         <v>3.113</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1833,10 +1997,14 @@
         <v>25107.75790000006</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>3.116</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1875,7 +2043,9 @@
       <c r="I41" t="n">
         <v>3.114</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1914,7 +2084,9 @@
       <c r="I42" t="n">
         <v>3.118</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1948,10 +2120,14 @@
         <v>124229.5279000001</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>3.119</v>
+      </c>
+      <c r="J43" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1990,7 +2166,9 @@
       <c r="I44" t="n">
         <v>3.114</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2029,7 +2207,9 @@
       <c r="I45" t="n">
         <v>3.118</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2068,7 +2248,9 @@
       <c r="I46" t="n">
         <v>3.117</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2107,7 +2289,9 @@
       <c r="I47" t="n">
         <v>3.119</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2146,7 +2330,9 @@
       <c r="I48" t="n">
         <v>3.113</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2185,7 +2371,9 @@
       <c r="I49" t="n">
         <v>3.116</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2224,7 +2412,9 @@
       <c r="I50" t="n">
         <v>3.118</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2263,7 +2453,9 @@
       <c r="I51" t="n">
         <v>3.112</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2302,7 +2494,9 @@
       <c r="I52" t="n">
         <v>3.116</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2341,7 +2535,9 @@
       <c r="I53" t="n">
         <v>3.112</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2380,7 +2576,9 @@
       <c r="I54" t="n">
         <v>3.117</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2419,7 +2617,9 @@
       <c r="I55" t="n">
         <v>3.113</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2458,7 +2658,9 @@
       <c r="I56" t="n">
         <v>3.114</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2497,7 +2699,9 @@
       <c r="I57" t="n">
         <v>3.115</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2536,7 +2740,9 @@
       <c r="I58" t="n">
         <v>3.117</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2575,7 +2781,9 @@
       <c r="I59" t="n">
         <v>3.115</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2614,7 +2822,9 @@
       <c r="I60" t="n">
         <v>3.114</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2653,7 +2863,9 @@
       <c r="I61" t="n">
         <v>3.116</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2692,7 +2904,9 @@
       <c r="I62" t="n">
         <v>3.114</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2731,7 +2945,9 @@
       <c r="I63" t="n">
         <v>3.112</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2770,7 +2986,9 @@
       <c r="I64" t="n">
         <v>3.114</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2809,7 +3027,9 @@
       <c r="I65" t="n">
         <v>3.116</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2848,7 +3068,9 @@
       <c r="I66" t="n">
         <v>3.12</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2887,7 +3109,9 @@
       <c r="I67" t="n">
         <v>3.112</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2926,7 +3150,9 @@
       <c r="I68" t="n">
         <v>3.115</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2965,7 +3191,9 @@
       <c r="I69" t="n">
         <v>3.119</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3004,7 +3232,9 @@
       <c r="I70" t="n">
         <v>3.113</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3043,7 +3273,9 @@
       <c r="I71" t="n">
         <v>3.113</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3082,7 +3314,9 @@
       <c r="I72" t="n">
         <v>3.119</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3121,7 +3355,9 @@
       <c r="I73" t="n">
         <v>3.117</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3160,7 +3396,9 @@
       <c r="I74" t="n">
         <v>3.118</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3199,7 +3437,9 @@
       <c r="I75" t="n">
         <v>3.115</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3238,7 +3478,9 @@
       <c r="I76" t="n">
         <v>3.112</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3277,7 +3519,9 @@
       <c r="I77" t="n">
         <v>3.119</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3316,7 +3560,9 @@
       <c r="I78" t="n">
         <v>3.112</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3355,7 +3601,9 @@
       <c r="I79" t="n">
         <v>3.112</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3394,7 +3642,9 @@
       <c r="I80" t="n">
         <v>3.115</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3433,7 +3683,9 @@
       <c r="I81" t="n">
         <v>3.116</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3472,7 +3724,9 @@
       <c r="I82" t="n">
         <v>3.114</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3511,7 +3765,9 @@
       <c r="I83" t="n">
         <v>3.113</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3550,7 +3806,9 @@
       <c r="I84" t="n">
         <v>3.117</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3589,7 +3847,9 @@
       <c r="I85" t="n">
         <v>3.112</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3628,7 +3888,9 @@
       <c r="I86" t="n">
         <v>3.115</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3667,7 +3929,9 @@
       <c r="I87" t="n">
         <v>3.12</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3706,7 +3970,9 @@
       <c r="I88" t="n">
         <v>3.117</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3745,7 +4011,9 @@
       <c r="I89" t="n">
         <v>3.116</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3784,7 +4052,9 @@
       <c r="I90" t="n">
         <v>3.119</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3823,7 +4093,9 @@
       <c r="I91" t="n">
         <v>3.12</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3862,7 +4134,9 @@
       <c r="I92" t="n">
         <v>3.118</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3901,7 +4175,9 @@
       <c r="I93" t="n">
         <v>3.112</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3940,7 +4216,9 @@
       <c r="I94" t="n">
         <v>3.117</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3979,7 +4257,9 @@
       <c r="I95" t="n">
         <v>3.118</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4018,7 +4298,9 @@
       <c r="I96" t="n">
         <v>3.113</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4057,7 +4339,9 @@
       <c r="I97" t="n">
         <v>3.115</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4096,7 +4380,9 @@
       <c r="I98" t="n">
         <v>3.114</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4135,7 +4421,9 @@
       <c r="I99" t="n">
         <v>3.112</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4174,7 +4462,9 @@
       <c r="I100" t="n">
         <v>3.119</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4213,7 +4503,9 @@
       <c r="I101" t="n">
         <v>3.119</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4252,7 +4544,9 @@
       <c r="I102" t="n">
         <v>3.117</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4291,7 +4585,9 @@
       <c r="I103" t="n">
         <v>3.118</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4330,7 +4626,9 @@
       <c r="I104" t="n">
         <v>3.114</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4369,7 +4667,9 @@
       <c r="I105" t="n">
         <v>3.116</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4408,7 +4708,9 @@
       <c r="I106" t="n">
         <v>3.115</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4447,7 +4749,9 @@
       <c r="I107" t="n">
         <v>3.116</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4486,7 +4790,9 @@
       <c r="I108" t="n">
         <v>3.118</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4525,7 +4831,9 @@
       <c r="I109" t="n">
         <v>3.111</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4564,7 +4872,9 @@
       <c r="I110" t="n">
         <v>3.115</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4603,7 +4913,9 @@
       <c r="I111" t="n">
         <v>3.117</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4642,7 +4954,9 @@
       <c r="I112" t="n">
         <v>3.118</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4681,7 +4995,9 @@
       <c r="I113" t="n">
         <v>3.119</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4720,7 +5036,9 @@
       <c r="I114" t="n">
         <v>3.114</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4759,7 +5077,9 @@
       <c r="I115" t="n">
         <v>3.116</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4798,7 +5118,9 @@
       <c r="I116" t="n">
         <v>3.116</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4832,12 +5154,12 @@
         <v>807611.6677</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4871,12 +5193,12 @@
         <v>636401.3377</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>3.118</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4910,12 +5232,12 @@
         <v>636401.3377</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4954,7 +5276,9 @@
       <c r="I120" t="n">
         <v>3.113</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4988,12 +5312,12 @@
         <v>629392.7277</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>3.118</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5032,7 +5356,9 @@
       <c r="I122" t="n">
         <v>3.114</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5066,12 +5392,12 @@
         <v>594349.6777</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>3.116</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5110,7 +5436,9 @@
       <c r="I124" t="n">
         <v>3.113</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5144,12 +5472,12 @@
         <v>526970.9036999999</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5183,12 +5511,12 @@
         <v>596055.7736999999</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>3.114</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5222,12 +5550,12 @@
         <v>519962.2936999999</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>3.118</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5261,12 +5589,12 @@
         <v>467898.3336999999</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>3.117</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5305,7 +5633,9 @@
       <c r="I129" t="n">
         <v>3.115</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5344,7 +5674,9 @@
       <c r="I130" t="n">
         <v>3.112</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5383,7 +5715,9 @@
       <c r="I131" t="n">
         <v>3.112</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5422,7 +5756,9 @@
       <c r="I132" t="n">
         <v>3.115</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5461,7 +5797,9 @@
       <c r="I133" t="n">
         <v>3.116</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5500,7 +5838,9 @@
       <c r="I134" t="n">
         <v>3.119</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5539,7 +5879,9 @@
       <c r="I135" t="n">
         <v>3.115</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5578,7 +5920,9 @@
       <c r="I136" t="n">
         <v>3.112</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5617,7 +5961,9 @@
       <c r="I137" t="n">
         <v>3.114</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5656,7 +6002,9 @@
       <c r="I138" t="n">
         <v>3.111</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5695,7 +6043,9 @@
       <c r="I139" t="n">
         <v>3.118</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5734,7 +6084,9 @@
       <c r="I140" t="n">
         <v>3.112</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5773,7 +6125,9 @@
       <c r="I141" t="n">
         <v>3.112</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5812,7 +6166,9 @@
       <c r="I142" t="n">
         <v>3.112</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5851,7 +6207,9 @@
       <c r="I143" t="n">
         <v>3.115</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5890,7 +6248,9 @@
       <c r="I144" t="n">
         <v>3.112</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5929,7 +6289,9 @@
       <c r="I145" t="n">
         <v>3.112</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5968,7 +6330,9 @@
       <c r="I146" t="n">
         <v>3.117</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6007,7 +6371,9 @@
       <c r="I147" t="n">
         <v>3.112</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6046,7 +6412,9 @@
       <c r="I148" t="n">
         <v>3.112</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6085,7 +6453,9 @@
       <c r="I149" t="n">
         <v>3.112</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6124,7 +6494,9 @@
       <c r="I150" t="n">
         <v>3.112</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6163,7 +6535,9 @@
       <c r="I151" t="n">
         <v>3.114</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6202,7 +6576,9 @@
       <c r="I152" t="n">
         <v>3.113</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6241,7 +6617,9 @@
       <c r="I153" t="n">
         <v>3.113</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6280,7 +6658,9 @@
       <c r="I154" t="n">
         <v>3.116</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6319,7 +6699,9 @@
       <c r="I155" t="n">
         <v>3.114</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6358,7 +6740,9 @@
       <c r="I156" t="n">
         <v>3.115</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6397,7 +6781,9 @@
       <c r="I157" t="n">
         <v>3.116</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6436,7 +6822,9 @@
       <c r="I158" t="n">
         <v>3.113</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6475,7 +6863,9 @@
       <c r="I159" t="n">
         <v>3.116</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6514,7 +6904,9 @@
       <c r="I160" t="n">
         <v>3.113</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6553,7 +6945,9 @@
       <c r="I161" t="n">
         <v>3.112</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6592,7 +6986,9 @@
       <c r="I162" t="n">
         <v>3.113</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6631,7 +7027,9 @@
       <c r="I163" t="n">
         <v>3.113</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6670,7 +7068,9 @@
       <c r="I164" t="n">
         <v>3.114</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6709,7 +7109,9 @@
       <c r="I165" t="n">
         <v>3.117</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6748,7 +7150,9 @@
       <c r="I166" t="n">
         <v>3.113</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6787,7 +7191,9 @@
       <c r="I167" t="n">
         <v>3.113</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6826,7 +7232,9 @@
       <c r="I168" t="n">
         <v>3.113</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6865,7 +7273,9 @@
       <c r="I169" t="n">
         <v>3.113</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6904,7 +7314,9 @@
       <c r="I170" t="n">
         <v>3.112</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6943,7 +7355,9 @@
       <c r="I171" t="n">
         <v>3.111</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6982,7 +7396,9 @@
       <c r="I172" t="n">
         <v>3.116</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7021,7 +7437,9 @@
       <c r="I173" t="n">
         <v>3.111</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7060,7 +7478,9 @@
       <c r="I174" t="n">
         <v>3.111</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7099,7 +7519,9 @@
       <c r="I175" t="n">
         <v>3.111</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7138,7 +7560,9 @@
       <c r="I176" t="n">
         <v>3.111</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7177,7 +7601,9 @@
       <c r="I177" t="n">
         <v>3.113</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7211,12 +7637,12 @@
         <v>1136303.9792</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7255,7 +7681,9 @@
       <c r="I179" t="n">
         <v>3.118</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7289,12 +7717,12 @@
         <v>1110271.9992</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>3.114</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7328,12 +7756,12 @@
         <v>1087243.7092</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>3.114</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7372,7 +7800,9 @@
       <c r="I182" t="n">
         <v>3.111</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7411,7 +7841,9 @@
       <c r="I183" t="n">
         <v>3.112</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7448,7 +7880,9 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7485,7 +7919,9 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7522,7 +7958,9 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7559,7 +7997,9 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7596,7 +8036,9 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7633,7 +8075,9 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7670,7 +8114,9 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7707,7 +8153,9 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7744,7 +8192,9 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7781,7 +8231,9 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7818,7 +8270,9 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7855,7 +8309,9 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7892,7 +8348,9 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7929,7 +8387,9 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7966,7 +8426,9 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8003,7 +8465,9 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8040,7 +8504,9 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8077,7 +8543,9 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8114,7 +8582,9 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8151,7 +8621,9 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8188,7 +8660,9 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8225,7 +8699,9 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8262,7 +8738,9 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8299,7 +8777,9 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8336,7 +8816,9 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8373,7 +8855,9 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8410,7 +8894,9 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8447,7 +8933,9 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8484,7 +8972,9 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8521,7 +9011,9 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8558,7 +9050,9 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8595,7 +9089,9 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8632,7 +9128,9 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8669,7 +9167,9 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8706,7 +9206,9 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8743,7 +9245,9 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8780,7 +9284,9 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8817,7 +9323,9 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8854,7 +9362,9 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8891,7 +9401,9 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8928,7 +9440,9 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8965,7 +9479,9 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9002,7 +9518,9 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9039,7 +9557,9 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9076,7 +9596,9 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9113,7 +9635,9 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9150,7 +9674,9 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9187,7 +9713,9 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9224,7 +9752,9 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9261,7 +9791,9 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9298,7 +9830,9 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9335,7 +9869,9 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9372,7 +9908,9 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9409,7 +9947,9 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9446,7 +9986,9 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9483,7 +10025,9 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9520,7 +10064,9 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9557,7 +10103,9 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9594,7 +10142,9 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9631,7 +10181,9 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9668,7 +10220,9 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9705,7 +10259,9 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9742,7 +10298,9 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9779,7 +10337,9 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9816,7 +10376,9 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9850,12 +10412,12 @@
         <v>794964.7981999995</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="J249" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9889,12 +10451,12 @@
         <v>794964.7981999995</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="J250" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9931,7 +10493,9 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9965,12 +10529,12 @@
         <v>794964.7981999995</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="J252" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10004,12 +10568,12 @@
         <v>794964.7981999995</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="J253" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10043,12 +10607,12 @@
         <v>794964.7981999995</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="J254" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10082,12 +10646,12 @@
         <v>794964.7981999995</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="J255" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10121,12 +10685,12 @@
         <v>868006.5291999995</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="J256" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10160,12 +10724,12 @@
         <v>812938.8791999995</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="J257" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10199,12 +10763,12 @@
         <v>812938.8791999995</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="J258" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10238,12 +10802,12 @@
         <v>812938.8791999995</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="J259" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10277,12 +10841,12 @@
         <v>812938.8791999995</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="J260" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10316,12 +10880,12 @@
         <v>812938.8791999995</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="J261" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10355,12 +10919,12 @@
         <v>812938.8791999995</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="J262" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10394,12 +10958,12 @@
         <v>812938.8791999995</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="J263" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10433,12 +10997,12 @@
         <v>812738.8791999995</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="J264" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10472,12 +11036,12 @@
         <v>752465.0791999995</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>3.118</v>
-      </c>
-      <c r="J265" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10511,12 +11075,12 @@
         <v>752465.0791999995</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>3.117</v>
-      </c>
-      <c r="J266" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10550,12 +11114,12 @@
         <v>752465.0791999995</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>3.117</v>
-      </c>
-      <c r="J267" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10589,12 +11153,12 @@
         <v>752465.0791999995</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>3.117</v>
-      </c>
-      <c r="J268" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10628,12 +11192,12 @@
         <v>752465.0791999995</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>3.117</v>
-      </c>
-      <c r="J269" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10667,12 +11231,12 @@
         <v>752465.0791999995</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>3.117</v>
-      </c>
-      <c r="J270" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10706,12 +11270,12 @@
         <v>752465.0791999995</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>3.117</v>
-      </c>
-      <c r="J271" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10745,12 +11309,12 @@
         <v>752465.0791999995</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>3.117</v>
-      </c>
-      <c r="J272" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10784,12 +11348,12 @@
         <v>752465.0791999995</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>3.117</v>
-      </c>
-      <c r="J273" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10823,12 +11387,12 @@
         <v>752465.0791999995</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>3.117</v>
-      </c>
-      <c r="J274" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10862,12 +11426,12 @@
         <v>752465.0791999995</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>3.117</v>
-      </c>
-      <c r="J275" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10901,12 +11465,12 @@
         <v>752465.0791999995</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I276" t="n">
-        <v>3.117</v>
-      </c>
-      <c r="J276" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10940,12 +11504,12 @@
         <v>752465.0791999995</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I277" t="n">
-        <v>3.117</v>
-      </c>
-      <c r="J277" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10979,12 +11543,12 @@
         <v>752465.0791999995</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
-      </c>
-      <c r="I278" t="n">
-        <v>3.117</v>
-      </c>
-      <c r="J278" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11023,7 +11587,9 @@
       <c r="I279" t="n">
         <v>3.117</v>
       </c>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11057,12 +11623,12 @@
         <v>752465.0791999995</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
-      </c>
-      <c r="I280" t="n">
-        <v>3.117</v>
-      </c>
-      <c r="J280" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11096,12 +11662,12 @@
         <v>752465.0791999995</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I281" t="n">
-        <v>3.117</v>
-      </c>
-      <c r="J281" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11135,12 +11701,12 @@
         <v>752465.0791999995</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I282" t="n">
-        <v>3.117</v>
-      </c>
-      <c r="J282" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11174,12 +11740,12 @@
         <v>752635.0791999995</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
-      </c>
-      <c r="I283" t="n">
-        <v>3.117</v>
-      </c>
-      <c r="J283" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11218,7 +11784,9 @@
       <c r="I284" t="n">
         <v>3.118</v>
       </c>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11257,7 +11825,9 @@
       <c r="I285" t="n">
         <v>3.117</v>
       </c>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11296,7 +11866,9 @@
       <c r="I286" t="n">
         <v>3.117</v>
       </c>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11335,7 +11907,9 @@
       <c r="I287" t="n">
         <v>3.118</v>
       </c>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11374,7 +11948,9 @@
       <c r="I288" t="n">
         <v>3.117</v>
       </c>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11413,7 +11989,9 @@
       <c r="I289" t="n">
         <v>3.116</v>
       </c>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11452,7 +12030,9 @@
       <c r="I290" t="n">
         <v>3.117</v>
       </c>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11491,7 +12071,9 @@
       <c r="I291" t="n">
         <v>3.117</v>
       </c>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11530,7 +12112,9 @@
       <c r="I292" t="n">
         <v>3.117</v>
       </c>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11569,7 +12153,9 @@
       <c r="I293" t="n">
         <v>3.116</v>
       </c>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11608,7 +12194,9 @@
       <c r="I294" t="n">
         <v>3.116</v>
       </c>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11647,7 +12235,9 @@
       <c r="I295" t="n">
         <v>3.116</v>
       </c>
-      <c r="J295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11686,7 +12276,9 @@
       <c r="I296" t="n">
         <v>3.116</v>
       </c>
-      <c r="J296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11725,7 +12317,9 @@
       <c r="I297" t="n">
         <v>3.115</v>
       </c>
-      <c r="J297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11759,12 +12353,12 @@
         <v>1348135.307799999</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
-      </c>
-      <c r="I298" t="n">
-        <v>3.128</v>
-      </c>
-      <c r="J298" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11801,7 +12395,9 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11838,7 +12434,9 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11875,7 +12473,9 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11912,7 +12512,9 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11949,7 +12551,9 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11986,7 +12590,9 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12023,7 +12629,9 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12060,7 +12668,9 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12097,7 +12707,9 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12134,7 +12746,9 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12171,7 +12785,9 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12208,7 +12824,9 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12245,7 +12863,9 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12282,7 +12902,9 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12319,7 +12941,9 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12356,7 +12980,9 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12393,7 +13019,9 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12430,7 +13058,9 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12467,7 +13097,9 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12504,7 +13136,9 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12541,7 +13175,9 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12578,7 +13214,9 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12615,7 +13253,9 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12652,7 +13292,9 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12689,7 +13331,9 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12726,7 +13370,9 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12763,7 +13409,9 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12800,7 +13448,9 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12837,7 +13487,9 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12874,7 +13526,9 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12911,7 +13565,9 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12948,7 +13604,9 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12985,7 +13643,9 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13022,7 +13682,9 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13059,7 +13721,9 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13096,7 +13760,9 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13133,7 +13799,9 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13170,7 +13838,9 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13207,7 +13877,9 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13244,7 +13916,9 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13281,7 +13955,9 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13318,7 +13994,9 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13355,7 +14033,9 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13392,7 +14072,9 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13429,7 +14111,9 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13466,7 +14150,9 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13503,7 +14189,9 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13540,7 +14228,9 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13577,7 +14267,9 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13614,7 +14306,9 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13651,7 +14345,9 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13688,7 +14384,9 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13725,7 +14423,9 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13762,7 +14462,9 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13799,7 +14501,9 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13836,7 +14540,9 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13873,7 +14579,9 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13910,7 +14618,9 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13947,7 +14657,9 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13984,7 +14696,9 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14021,7 +14735,9 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14058,7 +14774,9 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14095,7 +14813,9 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14132,7 +14852,9 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14169,7 +14891,9 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14206,7 +14930,9 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14243,7 +14969,9 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14280,7 +15008,9 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14317,7 +15047,9 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14354,7 +15086,9 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14391,7 +15125,9 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14428,7 +15164,9 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14465,7 +15203,9 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14502,7 +15242,9 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14539,7 +15281,9 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14576,7 +15320,9 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14613,7 +15359,9 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14650,7 +15398,9 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14687,7 +15437,9 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14724,7 +15476,9 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14761,7 +15515,9 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14798,7 +15554,9 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14835,7 +15593,9 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14872,7 +15632,9 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14909,7 +15671,9 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14946,7 +15710,9 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14983,7 +15749,9 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15017,16 +15785,20 @@
         <v>1538668.246</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K386" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L386" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L386" t="n">
+        <v>1</v>
+      </c>
       <c r="M386" t="inlineStr"/>
     </row>
     <row r="387">
@@ -15052,11 +15824,17 @@
         <v>1636788.786</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -15085,11 +15863,17 @@
         <v>1527654.716</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -15118,11 +15902,17 @@
         <v>1483057.497999999</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -15151,11 +15941,17 @@
         <v>1404961.557999999</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -15187,8 +15983,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -15220,8 +16022,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -15253,8 +16061,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15286,8 +16100,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15319,8 +16139,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15352,8 +16178,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15382,11 +16214,17 @@
         <v>2907210.017999999</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15415,11 +16253,17 @@
         <v>2961276.437999999</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15451,8 +16295,14 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15481,11 +16331,17 @@
         <v>2832117.767999999</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15517,8 +16373,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15550,8 +16412,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15583,8 +16451,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15616,8 +16490,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15649,8 +16529,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15682,8 +16568,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15715,8 +16607,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15748,8 +16646,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15781,8 +16685,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15814,8 +16724,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15847,8 +16763,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15880,8 +16802,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15913,8 +16841,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15946,8 +16880,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15979,8 +16919,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -16012,8 +16958,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -16045,8 +16997,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -16078,8 +17036,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -16111,8 +17075,14 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -16144,8 +17114,14 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -16177,8 +17153,14 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -16210,8 +17192,14 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -16243,8 +17231,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -16276,8 +17270,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -16309,8 +17309,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -16342,8 +17348,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -16375,8 +17387,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -16408,8 +17426,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -16441,8 +17465,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -16474,8 +17504,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16507,8 +17543,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16540,8 +17582,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16573,8 +17621,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16606,8 +17660,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16639,8 +17699,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16672,8 +17738,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16705,8 +17777,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16738,8 +17816,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16771,8 +17855,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16804,8 +17894,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16837,8 +17933,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16870,8 +17972,14 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16903,8 +18011,14 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16936,8 +18050,14 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16969,8 +18089,14 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -17002,8 +18128,14 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -17035,8 +18167,14 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -17068,8 +18206,14 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -17101,8 +18245,14 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -17134,8 +18284,14 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -17167,8 +18323,14 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -17200,8 +18362,14 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -17233,8 +18401,14 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -17266,8 +18440,14 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -17299,8 +18479,14 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -17332,8 +18518,14 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -17365,8 +18557,14 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -17398,8 +18596,14 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -17431,8 +18635,14 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -17464,8 +18674,14 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -17497,8 +18713,14 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -17530,8 +18752,14 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -17563,8 +18791,14 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -17596,8 +18830,14 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -17629,8 +18869,14 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -17662,8 +18908,14 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -17695,8 +18947,14 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17728,8 +18986,14 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17761,8 +19025,14 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17794,8 +19064,14 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17827,8 +19103,14 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17860,8 +19142,14 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17893,8 +19181,14 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17926,8 +19220,14 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17959,8 +19259,14 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -17992,8 +19298,14 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -18025,8 +19337,14 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -18058,8 +19376,14 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -18091,8 +19415,14 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -18124,8 +19454,14 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -18157,8 +19493,14 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -18190,8 +19532,14 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -18223,8 +19571,14 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -18256,8 +19610,14 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -18289,8 +19649,14 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -18322,8 +19688,14 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -18355,8 +19727,14 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -18388,8 +19766,14 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -18421,8 +19805,14 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -18454,8 +19844,14 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -18487,8 +19883,14 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -18520,8 +19922,14 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -18553,8 +19961,14 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -18586,8 +20000,14 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -18619,8 +20039,14 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -18652,8 +20078,14 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -18685,8 +20117,14 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -18718,8 +20156,14 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -18751,8 +20195,14 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -18784,8 +20234,14 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -18817,8 +20273,14 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -18850,8 +20312,14 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -18883,8 +20351,14 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -18916,8 +20390,14 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -18949,8 +20429,14 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -18982,8 +20468,14 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -19015,8 +20507,14 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -19048,8 +20546,14 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -19081,8 +20585,14 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -19114,8 +20624,14 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -19147,8 +20663,14 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -19180,8 +20702,14 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -19213,8 +20741,14 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -19246,8 +20780,14 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -19279,8 +20819,14 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -19312,8 +20858,14 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -19345,8 +20897,14 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -19378,8 +20936,14 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -19411,8 +20975,14 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -19444,8 +21014,14 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -19477,8 +21053,14 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -19510,8 +21092,14 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -19543,8 +21131,14 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -19576,8 +21170,14 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -19609,8 +21209,14 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -19642,8 +21248,14 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -19675,8 +21287,14 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -19708,8 +21326,14 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -19741,8 +21365,14 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -19774,8 +21404,14 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -19807,8 +21443,14 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -19840,8 +21482,14 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -19873,8 +21521,14 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -19906,8 +21560,14 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -19939,8 +21599,14 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -19972,8 +21638,14 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -20005,8 +21677,14 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -20038,8 +21716,14 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -20071,8 +21755,14 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -20104,8 +21794,14 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -20137,8 +21833,14 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -20170,8 +21872,14 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -20203,8 +21911,14 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -20236,8 +21950,14 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -20269,8 +21989,14 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -20302,8 +22028,14 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -20335,8 +22067,14 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -20368,8 +22106,14 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -20401,8 +22145,14 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -20434,8 +22184,14 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -20467,8 +22223,14 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -20500,8 +22262,14 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -20533,8 +22301,14 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -20566,8 +22340,14 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -20599,8 +22379,14 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -20632,8 +22418,14 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -20665,8 +22457,14 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -20698,8 +22496,14 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -20731,8 +22535,14 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -20761,13 +22571,19 @@
         <v>5488918.132341813</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L560" t="n">
-        <v>1</v>
+        <v>1.03628</v>
       </c>
       <c r="M560" t="inlineStr"/>
     </row>
@@ -20794,7 +22610,7 @@
         <v>5416829.572341814</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -21058,7 +22874,7 @@
         <v>5222166.361641813</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -21124,7 +22940,7 @@
         <v>5098063.041641813</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -21685,7 +23501,7 @@
         <v>5627651.011041814</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -21718,7 +23534,7 @@
         <v>5567657.309041814</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -21751,7 +23567,7 @@
         <v>5462528.159041814</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -21784,7 +23600,7 @@
         <v>5518597.039041813</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -21817,7 +23633,7 @@
         <v>5571662.229041814</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -21850,7 +23666,7 @@
         <v>5542626.559041814</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
